--- a/data/input/FISH/Fish_Pathogen_TaxSyn_List.xlsx
+++ b/data/input/FISH/Fish_Pathogen_TaxSyn_List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV224"/>
+  <dimension ref="A1:HV226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7507,7 +7507,11 @@
           <t>Aliivibrio fischeri</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vibrio fischeri</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>"Bacterium phosphorescens indigenus" (Eisenberg 1891) Chester 1897</t>
@@ -7783,7 +7787,11 @@
           <t>Aliivibrio logei</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vibrio logei</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Photobacterium logei</t>
@@ -17291,7 +17299,11 @@
           <t>Enterococcus casseliflavus</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Enterococcus flavescens</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>Enterococcus flavescens</t>
@@ -19271,7 +19283,11 @@
           <t>Exiguobacterium indicum</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Exiguobacterium enclense</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>Exiguobacterium enclense</t>
@@ -22544,94 +22560,42 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lactiplantibacillus plantarum</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Lactobacillus plantarum</t>
-        </is>
-      </c>
+          <t>Lactococcus garvieae</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lactobacillus arabinosus</t>
+          <t>Enterococcus seriolicida</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Lactobacillus arizonensis</t>
+          <t>Lactococcus garviae</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Lactobacillus plantarum (Orla-Jensen 1919) Bergey et al. 1923 (Approved Lists 1980)</t>
+          <t>Lactococcus garvieae (Collins et al. 1984) Schleifer et al. 1986</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lactobacterium plantarum</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Streptobacterium plantarum</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. DMR09</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. HC-2</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. Lact08</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. Lact09</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. Lact14</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. M6DWS</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. S2</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. S8</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. XJ25</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. Z12</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Weissella sp. Lact07</t>
-        </is>
-      </c>
+          <t>Streptococcus garvieae Collins et al. 1984</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
@@ -22848,30 +22812,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lactococcus garvieae</t>
+          <t>Lactococcus lactis</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Enterococcus seriolicida</t>
+          <t>Lactobacillus xylosus</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Lactococcus garviae</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Lactococcus garvieae (Collins et al. 1984) Schleifer et al. 1986</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Streptococcus garvieae Collins et al. 1984</t>
-        </is>
-      </c>
+          <t>Streptococcus lactis (Lister 1873) Lohnis 1909 (Approved Lists 1980)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -23100,20 +23056,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lactococcus lactis</t>
+          <t>Lactococcus raffinolactis</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lactobacillus xylosus</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Streptococcus lactis (Lister 1873) Lohnis 1909 (Approved Lists 1980)</t>
-        </is>
-      </c>
+          <t>Streptococcus raffinolactis</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -23344,16 +23296,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lactococcus raffinolactis</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>Latilactobacillus sakei</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Lactobacillus plantarum</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Streptococcus raffinolactis</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>Lactobacillus bavaricus</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Lactobacillus sake (sic) Katagiri et al. 1934 (Approved Lists 1980)</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -24083,7 +24043,11 @@
           <t>Lysinibacillus fusiformis</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Bacillus fusiformis</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>Aerobacillus fusiformis</t>
@@ -25552,45 +25516,21 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Micrococcus luteus</t>
+          <t>Micrococcus flavus</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Micrococcus flavus" Trevisan</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Bacteridium luteum</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Micrococcus lysodeikticus</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sarcina lutea</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Burkholderia sp. 2385</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Micrococcus sp. AIAM01</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Micrococcus sp. VTT E-072678</t>
-        </is>
-      </c>
+          <t>Micrococcus sp. LW4</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -25816,25 +25756,45 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Micrococcus yunnanensis</t>
+          <t>Micrococcus luteus</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Micrococcaceae bacterium YIM 65004</t>
+          <t>"Micrococcus flavus" Trevisan</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Micrococcus sp. JKR76</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+          <t>Bacteridium luteum</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Micrococcus lysodeikticus</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sarcina lutea</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Burkholderia sp. 2385</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Micrococcus sp. AIAM01</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Micrococcus sp. VTT E-072678</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
@@ -26060,12 +26020,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Moellerella wisconsensis</t>
+          <t>Micrococcus yunnanensis</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Micrococcaceae bacterium YIM 65004</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Micrococcus sp. JKR76</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -26296,15 +26264,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Moritella viscosa</t>
+          <t>Moellerella wisconsensis</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Vibrio viscosus</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
@@ -26536,13 +26500,13 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mycobacterium aemonae</t>
+          <t>Moritella viscosa</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>'Mycobacterium aemonae'</t>
+          <t>Vibrio viscosus</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -26776,11 +26740,15 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mycobacterium angelicum</t>
+          <t>Mycobacterium aemonae</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>'Mycobacterium aemonae'</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
@@ -27012,15 +26980,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Mycobacterium chesapeaki</t>
+          <t>Mycobacterium angelicum</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Mycobacterium sp. RH-2000</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
@@ -27252,11 +27216,15 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Mycobacterium gordonae</t>
+          <t>Mycobacterium chesapeaki</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mycobacterium sp. RH-2000</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
@@ -27488,7 +27456,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mycobacterium haemophilum</t>
+          <t>Mycobacterium gordonae</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -27724,20 +27692,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mycobacterium marinum</t>
+          <t>Mycobacterium haemophilum</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Mycobacterium balnei</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Mycobacterium platypoecilus</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -27968,12 +27928,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mycobacterium pseudoshottsii</t>
+          <t>Mycobacterium marinum</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Mycobacterium balnei</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Mycobacterium platypoecilus</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -28204,15 +28172,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Mycobacterium shottsii</t>
+          <t>Mycobacterium pseudoshottsii</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Mycobacterium sp. M175</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
@@ -28444,11 +28408,15 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mycobacterium szulgai</t>
+          <t>Mycobacterium shottsii</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Mycobacterium sp. M175</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
@@ -28680,29 +28648,13 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mycobacteroides chelonae</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Mycobacterium chelonae</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Mycobacterium chelonae corrig.</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Mycobacterium chelonae corrig. Bergey et al. 1923 (Approved Lists 1980)</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Mycobacterium chelonei</t>
-        </is>
-      </c>
+          <t>Mycobacterium szulgai</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -28932,21 +28884,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mycobacteroides salmoniphilum</t>
+          <t>Mycobacteroides chelonae</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mycobacterium salmoniphilum</t>
+          <t>Mycobacterium chelonae</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mycobacterium salmoniphilum</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+          <t>Mycobacterium chelonae corrig.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Mycobacterium chelonae corrig. Bergey et al. 1923 (Approved Lists 1980)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Mycobacterium chelonei</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -29176,17 +29136,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mycolicibacterium conceptionense</t>
+          <t>Mycobacteroides salmoniphilum</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mycobacterium conceptionense</t>
+          <t>Mycobacterium salmoniphilum</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mycobacterium conceptionense</t>
+          <t>Mycobacterium salmoniphilum</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -29420,29 +29380,21 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mycolicibacterium fortuitum</t>
+          <t>Mycolicibacterium conceptionense</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mycobacterium fortuitum</t>
+          <t>Mycobacterium conceptionense</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Mycobacterium fortuitum</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Mycobacterium giae</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Mycobacterium minetti</t>
-        </is>
-      </c>
+          <t>Mycobacterium conceptionense</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -29672,21 +29624,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mycolicibacterium mucogenicum</t>
+          <t>Mycolicibacterium fortuitum</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Mycobacterium mucogenicum</t>
+          <t>Mycobacterium fortuitum</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mycobacterium mucogenicum</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+          <t>Mycobacterium fortuitum</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Mycobacterium giae</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Mycobacterium minetti</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -29916,24 +29876,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mycolicibacterium peregrinum</t>
+          <t>Mycolicibacterium mucogenicum</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Mycobacterium peregrinum</t>
+          <t>Mycobacterium mucogenicum</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mycobacterium fortuitum biovar peregrinum</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Mycobacterium peregrinum</t>
-        </is>
-      </c>
+          <t>Mycobacterium mucogenicum</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -30164,12 +30120,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Myroides odoratimimus</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+          <t>Mycolicibacterium peregrinum</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mycobacterium peregrinum</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Mycobacterium fortuitum biovar peregrinum</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Mycobacterium peregrinum</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -30400,34 +30368,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Niallia circulans</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Bacillus circulans</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Bacillus sp. 3399BRRJ</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Bacillus sp. NCIM 2107</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Bacillus sp. NCIM 5045</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bacillus sp. NCIM 5046</t>
-        </is>
-      </c>
+          <t>Myroides odoratimimus</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -30656,14 +30604,34 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Nocardia seriolae</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+          <t>Niallia circulans</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Bacillus circulans</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Bacillus sp. 3399BRRJ</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Bacillus sp. NCIM 2107</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Bacillus sp. NCIM 5045</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bacillus sp. NCIM 5046</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -30892,20 +30860,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Obesumbacterium proteus</t>
+          <t>Nocardia seriolae</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Hafnia protea</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Obesumbacterium proteus (Shimwell and Grimes 1936) Shimwell 1963 (Approved Lists 1980)</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -31136,12 +31096,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Oceanobacillus oncorhynchi</t>
+          <t>Obesumbacterium proteus</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Hafnia protea</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Obesumbacterium proteus (Shimwell and Grimes 1936) Shimwell 1963 (Approved Lists 1980)</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31372,20 +31340,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Oerskovia turbata</t>
+          <t>Oceanobacillus oncorhynchi</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Cellulomonas turbata</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Nocardia turbata</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -31616,18 +31576,18 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Paenibacillus thiaminolyticus</t>
+          <t>Oerskovia turbata</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Bacillus thiaminolyticus</t>
+          <t>Cellulomonas turbata</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Clostridium thiaminolyticum</t>
+          <t>Nocardia turbata</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -31860,12 +31820,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Pasteurella skyensis</t>
+          <t>Paenibacillus thiaminolyticus</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Bacillus thiaminolyticus</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Clostridium thiaminolyticum</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -32096,30 +32064,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Pediococcus pentosaceus</t>
+          <t>Pasteurella skyensis</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Pediococcus hennebergii</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Lactobacillus sp. SL-1</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Pediococcus sp. MR001</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Tetracoccus No. 2</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -32348,45 +32300,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Photobacterium damselae</t>
+          <t>Pediococcus parvulus</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Listonella damsela (Love et al. 1982) MacDonell and Colwell 1986</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Listonella damselae corrig. (Love et al. 1982) MacDonell and Colwell 1986</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Photobacterium damsela</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Photobacterium damselae corrig. (Love et al. 1982) Smith et al. 1991</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Photobacterium histaminum</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Vibrio damsela Love et al. 1982</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Vibrio damselae corrig. Love et al. 1982</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -32612,18 +32536,30 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Photobacterium iliopiscarium</t>
+          <t>Pediococcus pentosaceus</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vibrio iliopiscarius</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
+          <t>Pediococcus hennebergii</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Lactobacillus sp. SL-1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Pediococcus sp. MR001</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Tetracoccus No. 2</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -32852,17 +32788,45 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Photobacterium kishitanii</t>
+          <t>Photobacterium damselae</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Listonella damsela (Love et al. 1982) MacDonell and Colwell 1986</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Listonella damselae corrig. (Love et al. 1982) MacDonell and Colwell 1986</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Photobacterium damsela</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Photobacterium damselae corrig. (Love et al. 1982) Smith et al. 1991</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Photobacterium histaminum</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Vibrio damsela Love et al. 1982</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Vibrio damselae corrig. Love et al. 1982</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
@@ -33088,13 +33052,13 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Photobacterium leiognathi</t>
+          <t>Photobacterium iliopiscarium</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Photobacterium sp. CMB_001</t>
+          <t>Vibrio iliopiscarius</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -33328,85 +33292,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Photobacterium phosphoreum</t>
+          <t>Photobacterium kishitanii</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Acinetobacter phosphorescens</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Bacillus hermesi</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Bacillus phosphorescens II</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bacillus phosphoreus</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Bacterium phosphorescens</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Bacterium phosphoreum</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Coccobacillus acropoma</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Micrococcus physiculus</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Photobacter phosphorescens</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Photobacter phosphoreum</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>Photobacterium phosphorescens</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>Photobacterium phosphoreum (Cohn 1878) Beijerinck 1889 (Approved Lists 1980)</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>Photobacterium profudum</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>Pseudomonas lucifera</t>
-        </is>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>Streptococcus phosphoreus</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
@@ -33624,11 +33528,15 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Piscirickettsia salmonis</t>
+          <t>Photobacterium leiognathi</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Photobacterium sp. CMB_001</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -33860,45 +33768,85 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Plesiomonas shigelloides</t>
+          <t>Photobacterium phosphoreum</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Aeromonas shigelloides</t>
+          <t>Acinetobacter phosphorescens</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Fergusonia shigelloides</t>
+          <t>Bacillus hermesi</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Pleisomonas shigelloides</t>
+          <t>Bacillus phosphorescens II</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Plesiomonas shigelloides corrig. (Bader 1954) Habs and Schubert 1962 (Approved Lists 1980)</t>
+          <t>Bacillus phosphoreus</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Pseudomonas shigelloides</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
+          <t>Bacterium phosphorescens</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Bacterium phosphoreum</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Coccobacillus acropoma</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Micrococcus physiculus</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Photobacter phosphorescens</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Photobacter phosphoreum</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Photobacterium phosphorescens</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Photobacterium phosphoreum (Cohn 1878) Beijerinck 1889 (Approved Lists 1980)</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Photobacterium profudum</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>Pseudomonas lucifera</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Streptococcus phosphoreus</t>
+        </is>
+      </c>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
@@ -34116,34 +34064,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Priestia flexa</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Bacillus flexus</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Bacillus flexus</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Bacillus sp. Fu</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Bacillus sp. OS46R</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bacillus sp. PRD 213</t>
-        </is>
-      </c>
+          <t>Piscirickettsia salmonis</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -34372,64 +34300,40 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Priestia megaterium</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Bacillus megaterium</t>
-        </is>
-      </c>
+          <t>Plesiomonas shigelloides</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bacillus megaterium</t>
+          <t>Aeromonas shigelloides</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Bacillus sp. IHB B 7164</t>
+          <t>Fergusonia shigelloides</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Bacillus sp. JP44SK2</t>
+          <t>Pleisomonas shigelloides</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Bacillus sp. NCIM 2032</t>
+          <t>Plesiomonas shigelloides corrig. (Bader 1954) Habs and Schubert 1962 (Approved Lists 1980)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Bacillus sp. NCIM 2087</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Bacillus sp. NCIM 5472</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Bacillus sp. OS42</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Bacillus sp. WHO</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Brevibacillus sp. NAK1-14</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Priestia sp. CNPSo 3706</t>
-        </is>
-      </c>
+          <t>Pseudomonas shigelloides</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -34652,28 +34556,32 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Proteus penneri</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
+          <t>Priestia flexa</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Bacillus flexus</t>
+        </is>
+      </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Proteus genomosp. 1</t>
+          <t>Bacillus flexus</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Proteus genomospecies 1</t>
+          <t>Bacillus sp. Fu</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Proteus vulgaris biogroup 1</t>
+          <t>Bacillus sp. OS46R</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Proteus vulgaris indole negative</t>
+          <t>Bacillus sp. PRD 213</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -34904,20 +34812,64 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Proteus vulgaris</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+          <t>Priestia megaterium</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Bacillus megaterium</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Bacillus megaterium</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Bacillus sp. IHB B 7164</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Bacillus sp. JP44SK2</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bacillus sp. NCIM 2032</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Bacillus sp. NCIM 2087</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Bacillus sp. NCIM 5472</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Bacillus sp. OS42</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Bacillus sp. WHO</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Brevibacillus sp. NAK1-14</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Priestia sp. CNPSo 3706</t>
+        </is>
+      </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -35140,26 +35092,30 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Providencia alcalifaciens</t>
+          <t>Proteus penneri</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bacillus inconstans</t>
+          <t>Proteus genomosp. 1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Eberthella alcalifaciens</t>
+          <t>Proteus genomospecies 1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Proteus inconstans (Ornstein 1920) Shaw and Clarke 1955</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
+          <t>Proteus vulgaris biogroup 1</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Proteus vulgaris indole negative</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -35388,30 +35344,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Pseudarthrobacter oxydans</t>
+          <t>Proteus vulgaris</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Arthrobacter oxidans</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Arthrobacter oxydans</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Arthrobacter sp. CF-46</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Arthrobacter sp. L62</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -35640,21 +35580,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Pseudidiomarina homiensis</t>
+          <t>Providencia alcalifaciens</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Idiomarina homiensis</t>
+          <t>Bacillus inconstans</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Idiomarina sp. PO-M2</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+          <t>Eberthella alcalifaciens</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Proteus inconstans (Ornstein 1920) Shaw and Clarke 1955</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -35884,22 +35828,30 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Pseudoalteromonas maricaloris</t>
+          <t>Pseudarthrobacter oxydans</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pseudoalteromonas flavipulchra</t>
+          <t>Arthrobacter oxidans</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Pseudoalteromonas sp. NCIMB2033</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+          <t>Arthrobacter oxydans</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Arthrobacter sp. CF-46</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Arthrobacter sp. L62</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -36128,12 +36080,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Pseudoalteromonas ruthenica</t>
+          <t>Pseudidiomarina homiensis</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Idiomarina homiensis</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Idiomarina sp. PO-M2</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
@@ -36364,12 +36324,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Pseudoalteromonas spongiae</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+          <t>Pseudoalteromonas maricaloris</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Pseudoalteromonas flavipulchra</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Pseudoalteromonas flavipulchra</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Pseudoalteromonas sp. NCIMB2033</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
@@ -36600,140 +36572,36 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Pseudoalteromonas ruthenica</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Bacillus aeruginosus</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Bacillus pyocyaneus</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Bacterium aeruginosum</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bacterium pyocyaneum</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Micrococcus pyocyaneus</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Pseudomonas aeruginosa (Schroeter 1872) Migula 1900 (Approved Lists 1980)</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Pseudomonas polycolor</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Pseudomonas pyocyanea</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>probable synonym or variety: "Pseudomonas polycolor" Clara 1930</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. 2_1_26</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. ACP_02</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. CRRI 93</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. HSA1/2016</t>
-        </is>
-      </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. MM</t>
-        </is>
-      </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. NCIM 2036</t>
-        </is>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. NCIM 2862</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. PR_01</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. PSE5</t>
-        </is>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. RV3</t>
-        </is>
-      </c>
-      <c r="V139" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. UFT2/2016</t>
-        </is>
-      </c>
-      <c r="W139" t="inlineStr">
-        <is>
-          <t>bacterium ASFP-37</t>
-        </is>
-      </c>
-      <c r="X139" t="inlineStr">
-        <is>
-          <t>bacterium ASFP-38</t>
-        </is>
-      </c>
-      <c r="Y139" t="inlineStr">
-        <is>
-          <t>bacterium ASFP-45</t>
-        </is>
-      </c>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>bacterium ASFP-46</t>
-        </is>
-      </c>
-      <c r="AA139" t="inlineStr">
-        <is>
-          <t>bacterium ASFP-48</t>
-        </is>
-      </c>
-      <c r="AB139" t="inlineStr">
-        <is>
-          <t>bacterium CRM125</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
       <c r="AD139" t="inlineStr"/>
       <c r="AE139" t="inlineStr"/>
@@ -36940,7 +36808,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pseudomonas anguilliseptica</t>
+          <t>Pseudoalteromonas spongiae</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -37176,44 +37044,140 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pseudomonas chlororaphis</t>
+          <t>Pseudomonas aeruginosa</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Pseudomonas chlororaphis (Guignard and Sauvageau 1894) Bergey et al. 1930 (Approved Lists 1980)</t>
+          <t>Bacillus aeruginosus</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Pseudomonas sp. UFB2</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
-      <c r="AB141" t="inlineStr"/>
+          <t>Bacillus pyocyaneus</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Bacterium aeruginosum</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bacterium pyocyaneum</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Micrococcus pyocyaneus</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Pseudomonas aeruginosa (Schroeter 1872) Migula 1900 (Approved Lists 1980)</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Pseudomonas polycolor</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Pseudomonas pyocyanea</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>probable synonym or variety: "Pseudomonas polycolor" Clara 1930</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. 2_1_26</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. ACP_02</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. CRRI 93</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. HSA1/2016</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. MM</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. NCIM 2036</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. NCIM 2862</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. PR_01</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. PSE5</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. RV3</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. UFT2/2016</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>bacterium ASFP-37</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>bacterium ASFP-38</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>bacterium ASFP-45</t>
+        </is>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>bacterium ASFP-46</t>
+        </is>
+      </c>
+      <c r="AA141" t="inlineStr">
+        <is>
+          <t>bacterium ASFP-48</t>
+        </is>
+      </c>
+      <c r="AB141" t="inlineStr">
+        <is>
+          <t>bacterium CRM125</t>
+        </is>
+      </c>
       <c r="AC141" t="inlineStr"/>
       <c r="AD141" t="inlineStr"/>
       <c r="AE141" t="inlineStr"/>
@@ -37420,95 +37384,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pseudomonas fluorescens</t>
+          <t>Pseudomonas anguilliseptica</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Bacillus fluorescens</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Bacillus fluorescens liquefaciens</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Bacterium fluorescen</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Liquidomonas fluorescens</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. AU2390</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. BZ64</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. FY32</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. HSA2/2016</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. HSA3/2016</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. ISSDS-433</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. JCM 17186</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. JCM 2779</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. KH-20150KS3</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. LBUM223</t>
-        </is>
-      </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. LBUM636</t>
-        </is>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. SM2/2016</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>bacterium P1-1</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
@@ -37724,16 +37620,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pseudomonas fragi</t>
+          <t>Pseudomonas chlororaphis</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Pseudomonas fragi (Eichholz 1902) Gruber 1905 (Approved Lists 1980)</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>Pseudomonas chlororaphis (Guignard and Sauvageau 1894) Bergey et al. 1930 (Approved Lists 1980)</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. UFB2</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
@@ -37964,35 +37864,95 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pseudomonas monteilii</t>
+          <t>Pseudomonas fluorescens</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Pseudomonas sp. MKP 213</t>
+          <t>Bacillus fluorescens</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Pseudomonas sp. V7SW2</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
+          <t>Bacillus fluorescens liquefaciens</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Bacterium fluorescen</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Liquidomonas fluorescens</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. AU2390</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. BZ64</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. FY32</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. HSA2/2016</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. HSA3/2016</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. ISSDS-433</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. JCM 17186</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. JCM 2779</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. KH-20150KS3</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. LBUM223</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. LBUM636</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. SM2/2016</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>bacterium P1-1</t>
+        </is>
+      </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
@@ -38208,11 +38168,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Pseudomonas mosselii</t>
+          <t>Pseudomonas fragi</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Pseudomonas fragi (Eichholz 1902) Gruber 1905 (Approved Lists 1980)</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
@@ -38444,16 +38408,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Pseudomonas plecoglossicida</t>
+          <t>Pseudomonas monteilii</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Pseudomonas sp. PUE-MAN8</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>Pseudomonas sp. MKP 213</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. V7SW2</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
@@ -38684,180 +38652,44 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pseudomonas putida</t>
+          <t>Pseudomonas mosselii</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Arthrobacter siderocapsulatus</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Bacillus fluorescens putidus</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Bacillus putidus</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Pseudomonas arvilla</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Pseudomonas convexa</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Pseudomonas eisenbergii</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Pseudomonas incognita</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Pseudomonas ovalis</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Pseudomonas rugosa</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Pseudomonas striata</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>Pseudomonas arvilla C-1</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>Pseudomonas putida HK5</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. 11CM-F1</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. 11CM-S1</t>
-        </is>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. ACP_03</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. B21-029</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. BW11M1</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. CT363</t>
-        </is>
-      </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. DRA525</t>
-        </is>
-      </c>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. ECT1/2016</t>
-        </is>
-      </c>
-      <c r="W147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. ECT2/2016</t>
-        </is>
-      </c>
-      <c r="X147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. ETC3/2016</t>
-        </is>
-      </c>
-      <c r="Y147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. FAR1/2016</t>
-        </is>
-      </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. GM4FR</t>
-        </is>
-      </c>
-      <c r="AA147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. KDB25</t>
-        </is>
-      </c>
-      <c r="AB147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. KDS 6</t>
-        </is>
-      </c>
-      <c r="AC147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. PSE3</t>
-        </is>
-      </c>
-      <c r="AD147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. PT1/2016</t>
-        </is>
-      </c>
-      <c r="AE147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. PX-A-Ps.sp2</t>
-        </is>
-      </c>
-      <c r="AF147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. TAU2/2016</t>
-        </is>
-      </c>
-      <c r="AG147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. TC29-1</t>
-        </is>
-      </c>
-      <c r="AH147" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. UF1/2016</t>
-        </is>
-      </c>
-      <c r="AI147" t="inlineStr">
-        <is>
-          <t>bacterium ASFP-1</t>
-        </is>
-      </c>
-      <c r="AJ147" t="inlineStr">
-        <is>
-          <t>bacterium MASFP-4</t>
-        </is>
-      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
+      <c r="AI147" t="inlineStr"/>
+      <c r="AJ147" t="inlineStr"/>
       <c r="AK147" t="inlineStr"/>
       <c r="AL147" t="inlineStr"/>
       <c r="AM147" t="inlineStr"/>
@@ -39056,13 +38888,13 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Psychrobacter arcticus</t>
+          <t>Pseudomonas plecoglossicida</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Psychrobacter sp. 215-51</t>
+          <t>Pseudomonas sp. PUE-MAN8</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -39296,48 +39128,180 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Psychrobacter celer</t>
+          <t>Pseudomonas putida</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Psychrobacter sp. MN5SW1</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
-      <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr"/>
-      <c r="AB149" t="inlineStr"/>
-      <c r="AC149" t="inlineStr"/>
-      <c r="AD149" t="inlineStr"/>
-      <c r="AE149" t="inlineStr"/>
-      <c r="AF149" t="inlineStr"/>
-      <c r="AG149" t="inlineStr"/>
-      <c r="AH149" t="inlineStr"/>
-      <c r="AI149" t="inlineStr"/>
-      <c r="AJ149" t="inlineStr"/>
+          <t>Arthrobacter siderocapsulatus</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Bacillus fluorescens putidus</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Bacillus putidus</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Pseudomonas arvilla</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Pseudomonas convexa</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Pseudomonas eisenbergii</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Pseudomonas incognita</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Pseudomonas ovalis</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Pseudomonas rugosa</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Pseudomonas striata</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Pseudomonas arvilla C-1</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Pseudomonas putida HK5</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. 11CM-F1</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. 11CM-S1</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. ACP_03</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. B21-029</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. BW11M1</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. CT363</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. DRA525</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. ECT1/2016</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. ECT2/2016</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. ETC3/2016</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. FAR1/2016</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. GM4FR</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. KDB25</t>
+        </is>
+      </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. KDS 6</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. PSE3</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. PT1/2016</t>
+        </is>
+      </c>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. PX-A-Ps.sp2</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. TAU2/2016</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. TC29-1</t>
+        </is>
+      </c>
+      <c r="AH149" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. UF1/2016</t>
+        </is>
+      </c>
+      <c r="AI149" t="inlineStr">
+        <is>
+          <t>bacterium ASFP-1</t>
+        </is>
+      </c>
+      <c r="AJ149" t="inlineStr">
+        <is>
+          <t>bacterium MASFP-4</t>
+        </is>
+      </c>
       <c r="AK149" t="inlineStr"/>
       <c r="AL149" t="inlineStr"/>
       <c r="AM149" t="inlineStr"/>
@@ -39536,13 +39500,13 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Psychrobacter maritimus</t>
+          <t>Psychrobacter arcticus</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Psychrobacter sp. 3ps</t>
+          <t>Psychrobacter sp. 215-51</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -39776,13 +39740,13 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Psychrobacter psychrophilus</t>
+          <t>Psychrobacter celer</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>'Psychrobacter psychrophilus'</t>
+          <t>Psychrobacter sp. MN5SW1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -40016,13 +39980,13 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Rahnella aquatilis</t>
+          <t>Psychrobacter maritimus</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Enterobacter cloacae-like class H2</t>
+          <t>Psychrobacter sp. 3ps</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -40256,20 +40220,16 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Raoultella ornithinolytica</t>
+          <t>Psychrobacter psychrophilus</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Klebsiella ornithinolytica</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Klebsiella sp. Yangling I2</t>
-        </is>
-      </c>
+          <t>'Psychrobacter psychrophilus'</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
@@ -40500,11 +40460,15 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Renibacterium salmoninarum</t>
+          <t>Rahnella aquatilis</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Enterobacter cloacae-like class H2</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
@@ -40736,150 +40700,46 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Rhodococcus erythropolis</t>
+          <t>Raoultella ornithinolytica</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Arthrobacter hydrocarboglutamicus</t>
+          <t>Klebsiella ornithinolytica</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Arthrobacter oxamicetus</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Arthrobacter oxamicetus subsp. propiophenicolus</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Arthrobacter paraffineus</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Arthrobacter picolinophilus</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Brevibacterium healii</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Brevibacterium ketoglutamicum</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Brevibacterium paraffinoliticum</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Corynebacterium alkanum</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Corynebacterium aurantiacum</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>Corynebacterium humiferum</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>Mycobacterium erythropolis</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>Nocardia calcarea</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>Corynebacterium sp. WS2071</t>
-        </is>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>Corynebacterium sp. WS2072</t>
-        </is>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>Nocardioides simplex ATCC 13260</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>Nocardioides simplex ATCC 19565</t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>Nocardioides simplex ATCC 19566</t>
-        </is>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. 1159</t>
-        </is>
-      </c>
-      <c r="V155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. ATCC 15108</t>
-        </is>
-      </c>
-      <c r="W155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. ATCC 15961</t>
-        </is>
-      </c>
-      <c r="X155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. ATCC 21035</t>
-        </is>
-      </c>
-      <c r="Y155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. BG43</t>
-        </is>
-      </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. BZ4</t>
-        </is>
-      </c>
-      <c r="AA155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. DS-3</t>
-        </is>
-      </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. DSM 6344</t>
-        </is>
-      </c>
-      <c r="AC155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. NCIB 9646</t>
-        </is>
-      </c>
-      <c r="AD155" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. NI86/21</t>
-        </is>
-      </c>
+          <t>Klebsiella sp. Yangling I2</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
       <c r="AE155" t="inlineStr"/>
       <c r="AF155" t="inlineStr"/>
       <c r="AG155" t="inlineStr"/>
@@ -41084,55 +40944,19 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Rhodococcus qingshengii</t>
+          <t>Renibacterium salmoninarum</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Rhodococcus degradans</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Rhodococcus enclensis</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Rhodococcus jialingiae</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. CCM 4446</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. F22</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. IGTS8</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. NIO-1009</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. S10</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Rhodococcus sp. djl-6-2</t>
-        </is>
-      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
@@ -41356,50 +41180,150 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Rossellomorea aquimaris</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Bacillus aquimaris</t>
-        </is>
-      </c>
+          <t>Rhodococcus erythropolis</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bacillus aquimaris</t>
+          <t>Arthrobacter hydrocarboglutamicus</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Bacillus sp. JP44SK28</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
-      <c r="AA157" t="inlineStr"/>
-      <c r="AB157" t="inlineStr"/>
-      <c r="AC157" t="inlineStr"/>
-      <c r="AD157" t="inlineStr"/>
+          <t>Arthrobacter oxamicetus</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Arthrobacter oxamicetus subsp. propiophenicolus</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Arthrobacter paraffineus</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Arthrobacter picolinophilus</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Brevibacterium healii</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Brevibacterium ketoglutamicum</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Brevibacterium paraffinoliticum</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Corynebacterium alkanum</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Corynebacterium aurantiacum</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Corynebacterium humiferum</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>Mycobacterium erythropolis</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Nocardia calcarea</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>Corynebacterium sp. WS2071</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Corynebacterium sp. WS2072</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Nocardioides simplex ATCC 13260</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Nocardioides simplex ATCC 19565</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>Nocardioides simplex ATCC 19566</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. 1159</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. ATCC 15108</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. ATCC 15961</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. ATCC 21035</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. BG43</t>
+        </is>
+      </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. BZ4</t>
+        </is>
+      </c>
+      <c r="AA157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. DS-3</t>
+        </is>
+      </c>
+      <c r="AB157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. DSM 6344</t>
+        </is>
+      </c>
+      <c r="AC157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. NCIB 9646</t>
+        </is>
+      </c>
+      <c r="AD157" t="inlineStr">
+        <is>
+          <t>Rhodococcus sp. NI86/21</t>
+        </is>
+      </c>
       <c r="AE157" t="inlineStr"/>
       <c r="AF157" t="inlineStr"/>
       <c r="AG157" t="inlineStr"/>
@@ -41604,1193 +41528,305 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Salmonella enterica</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+          <t>Rhodococcus qingshengii</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Rhodococcus enclensis</t>
+        </is>
+      </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Bacillus cholerae-suis</t>
+          <t>Rhodococcus degradans</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Salmonella cholerae-suis</t>
+          <t>Rhodococcus enclensis</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Salmonella choleraesuis</t>
+          <t>Rhodococcus jialingiae</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Salmonella enterica ser. choleraesuis</t>
+          <t>Rhodococcus sp. CCM 4446</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Salmonella sp. 22OH10_CL01-S1</t>
+          <t>Rhodococcus sp. F22</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Salmonella sp. 22OH12_PC07-S1</t>
+          <t>Rhodococcus sp. IGTS8</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Salmonella sp. 23OH01_CG01-S1</t>
+          <t>Rhodococcus sp. NIO-1009</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Salmonella sp. 23OH01_GT01-S1</t>
+          <t>Rhodococcus sp. S10</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Salmonella sp. 23OH01_GT02-S1</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH02_GT02-S1</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH04_CG01-S1</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH05_CB01-S1</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH06_CG01-S1</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH06_CH01-S1</t>
-        </is>
-      </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH06_GT01-S1</t>
-        </is>
-      </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH07_CB02-S1</t>
-        </is>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH07_GT04-S1</t>
-        </is>
-      </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH08_CG01-S1</t>
-        </is>
-      </c>
-      <c r="U158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH10_CB03-S1</t>
-        </is>
-      </c>
-      <c r="V158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. 23OH10_CG01-S1</t>
-        </is>
-      </c>
-      <c r="W158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 200</t>
-        </is>
-      </c>
-      <c r="X158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 238</t>
-        </is>
-      </c>
-      <c r="Y158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 239</t>
-        </is>
-      </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 240</t>
-        </is>
-      </c>
-      <c r="AA158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 253</t>
-        </is>
-      </c>
-      <c r="AB158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 257</t>
-        </is>
-      </c>
-      <c r="AC158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 265</t>
-        </is>
-      </c>
-      <c r="AD158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 266</t>
-        </is>
-      </c>
-      <c r="AE158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 267</t>
-        </is>
-      </c>
-      <c r="AF158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 268</t>
-        </is>
-      </c>
-      <c r="AG158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 270</t>
-        </is>
-      </c>
-      <c r="AH158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 28</t>
-        </is>
-      </c>
-      <c r="AI158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 289</t>
-        </is>
-      </c>
-      <c r="AJ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 291</t>
-        </is>
-      </c>
-      <c r="AK158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 294</t>
-        </is>
-      </c>
-      <c r="AL158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 299</t>
-        </is>
-      </c>
-      <c r="AM158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 301</t>
-        </is>
-      </c>
-      <c r="AN158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 327</t>
-        </is>
-      </c>
-      <c r="AO158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. AMC 90</t>
-        </is>
-      </c>
-      <c r="AP158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013420</t>
-        </is>
-      </c>
-      <c r="AQ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013433</t>
-        </is>
-      </c>
-      <c r="AR158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013434</t>
-        </is>
-      </c>
-      <c r="AS158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013435</t>
-        </is>
-      </c>
-      <c r="AT158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013436</t>
-        </is>
-      </c>
-      <c r="AU158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013437</t>
-        </is>
-      </c>
-      <c r="AV158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013438</t>
-        </is>
-      </c>
-      <c r="AW158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013439</t>
-        </is>
-      </c>
-      <c r="AX158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013440</t>
-        </is>
-      </c>
-      <c r="AY158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013468</t>
-        </is>
-      </c>
-      <c r="AZ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013469</t>
-        </is>
-      </c>
-      <c r="BA158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013470</t>
-        </is>
-      </c>
-      <c r="BB158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013495</t>
-        </is>
-      </c>
-      <c r="BC158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013496</t>
-        </is>
-      </c>
-      <c r="BD158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013499</t>
-        </is>
-      </c>
-      <c r="BE158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013500</t>
-        </is>
-      </c>
-      <c r="BF158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013513</t>
-        </is>
-      </c>
-      <c r="BG158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013514</t>
-        </is>
-      </c>
-      <c r="BH158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013515</t>
-        </is>
-      </c>
-      <c r="BI158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013516</t>
-        </is>
-      </c>
-      <c r="BJ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013517</t>
-        </is>
-      </c>
-      <c r="BK158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013518</t>
-        </is>
-      </c>
-      <c r="BL158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013519</t>
-        </is>
-      </c>
-      <c r="BM158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013520</t>
-        </is>
-      </c>
-      <c r="BN158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013521</t>
-        </is>
-      </c>
-      <c r="BO158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013522</t>
-        </is>
-      </c>
-      <c r="BP158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013523</t>
-        </is>
-      </c>
-      <c r="BQ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013524</t>
-        </is>
-      </c>
-      <c r="BR158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013525</t>
-        </is>
-      </c>
-      <c r="BS158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013526</t>
-        </is>
-      </c>
-      <c r="BT158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. FDA00013597</t>
-        </is>
-      </c>
-      <c r="BU158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. HC-257</t>
-        </is>
-      </c>
-      <c r="BV158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. IA1-174</t>
-        </is>
-      </c>
-      <c r="BW158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-A1</t>
-        </is>
-      </c>
-      <c r="BX158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-A2</t>
-        </is>
-      </c>
-      <c r="BY158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-A3</t>
-        </is>
-      </c>
-      <c r="BZ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-C</t>
-        </is>
-      </c>
-      <c r="CA158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-D1</t>
-        </is>
-      </c>
-      <c r="CB158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-D2</t>
-        </is>
-      </c>
-      <c r="CC158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-D3</t>
-        </is>
-      </c>
-      <c r="CD158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-D4</t>
-        </is>
-      </c>
-      <c r="CE158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-Z1</t>
-        </is>
-      </c>
-      <c r="CF158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH3-Z2</t>
-        </is>
-      </c>
-      <c r="CG158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH4-A2</t>
-        </is>
-      </c>
-      <c r="CH158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH4-A3</t>
-        </is>
-      </c>
-      <c r="CI158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH4-A4</t>
-        </is>
-      </c>
-      <c r="CJ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. MH4-Z2</t>
-        </is>
-      </c>
-      <c r="CK158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. NYVetLIRN-85</t>
-        </is>
-      </c>
-      <c r="CL158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. NYVetLIRN-86</t>
-        </is>
-      </c>
-      <c r="CM158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. NYVetLIRN-87</t>
-        </is>
-      </c>
-      <c r="CN158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. NYVetLIRN-88</t>
-        </is>
-      </c>
-      <c r="CO158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-15149</t>
-        </is>
-      </c>
-      <c r="CP158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-15334</t>
-        </is>
-      </c>
-      <c r="CQ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-15363</t>
-        </is>
-      </c>
-      <c r="CR158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-16886</t>
-        </is>
-      </c>
-      <c r="CS158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-16934</t>
-        </is>
-      </c>
-      <c r="CT158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-1</t>
-        </is>
-      </c>
-      <c r="CU158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-10</t>
-        </is>
-      </c>
-      <c r="CV158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-11</t>
-        </is>
-      </c>
-      <c r="CW158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-12</t>
-        </is>
-      </c>
-      <c r="CX158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-13</t>
-        </is>
-      </c>
-      <c r="CY158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-14</t>
-        </is>
-      </c>
-      <c r="CZ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-15</t>
-        </is>
-      </c>
-      <c r="DA158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-2</t>
-        </is>
-      </c>
-      <c r="DB158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-3</t>
-        </is>
-      </c>
-      <c r="DC158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-4</t>
-        </is>
-      </c>
-      <c r="DD158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-5</t>
-        </is>
-      </c>
-      <c r="DE158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-6</t>
-        </is>
-      </c>
-      <c r="DF158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-7</t>
-        </is>
-      </c>
-      <c r="DG158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-8</t>
-        </is>
-      </c>
-      <c r="DH158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18132-9</t>
-        </is>
-      </c>
-      <c r="DI158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18281-1</t>
-        </is>
-      </c>
-      <c r="DJ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18281-2</t>
-        </is>
-      </c>
-      <c r="DK158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18411</t>
-        </is>
-      </c>
-      <c r="DL158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18446</t>
-        </is>
-      </c>
-      <c r="DM158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18447</t>
-        </is>
-      </c>
-      <c r="DN158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-18941</t>
-        </is>
-      </c>
-      <c r="DO158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-19201</t>
-        </is>
-      </c>
-      <c r="DP158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-19951-1</t>
-        </is>
-      </c>
-      <c r="DQ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20073-2T</t>
-        </is>
-      </c>
-      <c r="DR158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20117-1</t>
-        </is>
-      </c>
-      <c r="DS158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20132-7</t>
-        </is>
-      </c>
-      <c r="DT158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20225-1-S</t>
-        </is>
-      </c>
-      <c r="DU158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20225-2-S</t>
-        </is>
-      </c>
-      <c r="DV158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20299-1</t>
-        </is>
-      </c>
-      <c r="DW158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20299-2</t>
-        </is>
-      </c>
-      <c r="DX158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20299-3</t>
-        </is>
-      </c>
-      <c r="DY158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20299-4</t>
-        </is>
-      </c>
-      <c r="DZ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20299-5</t>
-        </is>
-      </c>
-      <c r="EA158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20299-6</t>
-        </is>
-      </c>
-      <c r="EB158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20299-7</t>
-        </is>
-      </c>
-      <c r="EC158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20299-8</t>
-        </is>
-      </c>
-      <c r="ED158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20386</t>
-        </is>
-      </c>
-      <c r="EE158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20895</t>
-        </is>
-      </c>
-      <c r="EF158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-20897</t>
-        </is>
-      </c>
-      <c r="EG158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-21102</t>
-        </is>
-      </c>
-      <c r="EH158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-21112</t>
-        </is>
-      </c>
-      <c r="EI158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-21175</t>
-        </is>
-      </c>
-      <c r="EJ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-21493-S</t>
-        </is>
-      </c>
-      <c r="EK158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-21628</t>
-        </is>
-      </c>
-      <c r="EL158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-21629</t>
-        </is>
-      </c>
-      <c r="EM158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-21765</t>
-        </is>
-      </c>
-      <c r="EN158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-21865-2</t>
-        </is>
-      </c>
-      <c r="EO158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-22026</t>
-        </is>
-      </c>
-      <c r="EP158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-22045</t>
-        </is>
-      </c>
-      <c r="EQ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-22168</t>
-        </is>
-      </c>
-      <c r="ER158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-22269-1</t>
-        </is>
-      </c>
-      <c r="ES158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. OH-18-22479</t>
-        </is>
-      </c>
-      <c r="ET158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-LA-TX-0007</t>
-        </is>
-      </c>
-      <c r="EU158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-LA-TX-0008</t>
-        </is>
-      </c>
-      <c r="EV158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-LA-TX-0009</t>
-        </is>
-      </c>
-      <c r="EW158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-MS-0001</t>
-        </is>
-      </c>
-      <c r="EX158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-MS-0002</t>
-        </is>
-      </c>
-      <c r="EY158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-MS-0003</t>
-        </is>
-      </c>
-      <c r="EZ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-NJ-0001</t>
-        </is>
-      </c>
-      <c r="FA158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0001</t>
-        </is>
-      </c>
-      <c r="FB158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0004</t>
-        </is>
-      </c>
-      <c r="FC158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0005</t>
-        </is>
-      </c>
-      <c r="FD158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0006</t>
-        </is>
-      </c>
-      <c r="FE158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0007</t>
-        </is>
-      </c>
-      <c r="FF158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-IN-0001</t>
-        </is>
-      </c>
-      <c r="FG158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-IN-0002</t>
-        </is>
-      </c>
-      <c r="FH158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-IN-0003</t>
-        </is>
-      </c>
-      <c r="FI158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-IN-0005</t>
-        </is>
-      </c>
-      <c r="FJ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-IN-0007</t>
-        </is>
-      </c>
-      <c r="FK158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-WA-0012</t>
-        </is>
-      </c>
-      <c r="FL158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-WA-0013</t>
-        </is>
-      </c>
-      <c r="FM158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-WA-0014</t>
-        </is>
-      </c>
-      <c r="FN158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. SAL-18-VL-OH-WA-0017</t>
-        </is>
-      </c>
-      <c r="FO158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_251</t>
-        </is>
-      </c>
-      <c r="FP158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_258</t>
-        </is>
-      </c>
-      <c r="FQ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_262</t>
-        </is>
-      </c>
-      <c r="FR158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_264</t>
-        </is>
-      </c>
-      <c r="FS158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_265</t>
-        </is>
-      </c>
-      <c r="FT158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_266</t>
-        </is>
-      </c>
-      <c r="FU158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_267</t>
-        </is>
-      </c>
-      <c r="FV158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_269</t>
-        </is>
-      </c>
-      <c r="FW158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_274</t>
-        </is>
-      </c>
-      <c r="FX158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_279</t>
-        </is>
-      </c>
-      <c r="FY158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_282</t>
-        </is>
-      </c>
-      <c r="FZ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_284</t>
-        </is>
-      </c>
-      <c r="GA158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_287</t>
-        </is>
-      </c>
-      <c r="GB158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_289</t>
-        </is>
-      </c>
-      <c r="GC158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_297</t>
-        </is>
-      </c>
-      <c r="GD158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_298</t>
-        </is>
-      </c>
-      <c r="GE158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_299</t>
-        </is>
-      </c>
-      <c r="GF158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_303</t>
-        </is>
-      </c>
-      <c r="GG158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_304</t>
-        </is>
-      </c>
-      <c r="GH158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_305</t>
-        </is>
-      </c>
-      <c r="GI158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_306</t>
-        </is>
-      </c>
-      <c r="GJ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_307</t>
-        </is>
-      </c>
-      <c r="GK158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_308</t>
-        </is>
-      </c>
-      <c r="GL158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_309</t>
-        </is>
-      </c>
-      <c r="GM158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_310</t>
-        </is>
-      </c>
-      <c r="GN158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_311</t>
-        </is>
-      </c>
-      <c r="GO158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_312</t>
-        </is>
-      </c>
-      <c r="GP158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_313</t>
-        </is>
-      </c>
-      <c r="GQ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_314</t>
-        </is>
-      </c>
-      <c r="GR158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_315</t>
-        </is>
-      </c>
-      <c r="GS158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_316</t>
-        </is>
-      </c>
-      <c r="GT158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_317</t>
-        </is>
-      </c>
-      <c r="GU158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_318</t>
-        </is>
-      </c>
-      <c r="GV158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_319</t>
-        </is>
-      </c>
-      <c r="GW158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_320</t>
-        </is>
-      </c>
-      <c r="GX158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_321</t>
-        </is>
-      </c>
-      <c r="GY158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_322</t>
-        </is>
-      </c>
-      <c r="GZ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_323</t>
-        </is>
-      </c>
-      <c r="HA158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_324</t>
-        </is>
-      </c>
-      <c r="HB158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_325</t>
-        </is>
-      </c>
-      <c r="HC158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_326</t>
-        </is>
-      </c>
-      <c r="HD158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_327</t>
-        </is>
-      </c>
-      <c r="HE158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_328</t>
-        </is>
-      </c>
-      <c r="HF158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_329</t>
-        </is>
-      </c>
-      <c r="HG158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_330</t>
-        </is>
-      </c>
-      <c r="HH158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_331</t>
-        </is>
-      </c>
-      <c r="HI158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_332</t>
-        </is>
-      </c>
-      <c r="HJ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_333</t>
-        </is>
-      </c>
-      <c r="HK158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_334</t>
-        </is>
-      </c>
-      <c r="HL158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_335</t>
-        </is>
-      </c>
-      <c r="HM158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_338</t>
-        </is>
-      </c>
-      <c r="HN158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_345</t>
-        </is>
-      </c>
-      <c r="HO158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_352</t>
-        </is>
-      </c>
-      <c r="HP158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_353</t>
-        </is>
-      </c>
-      <c r="HQ158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_357</t>
-        </is>
-      </c>
-      <c r="HR158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_358</t>
-        </is>
-      </c>
-      <c r="HS158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TTU_359</t>
-        </is>
-      </c>
-      <c r="HT158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. TXACF1801691</t>
-        </is>
-      </c>
-      <c r="HU158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. Z-172</t>
-        </is>
-      </c>
-      <c r="HV158" t="inlineStr">
-        <is>
-          <t>Salmonella sp. ZH-248</t>
-        </is>
-      </c>
+          <t>Rhodococcus sp. djl-6-2</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
+      <c r="AI158" t="inlineStr"/>
+      <c r="AJ158" t="inlineStr"/>
+      <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr"/>
+      <c r="AO158" t="inlineStr"/>
+      <c r="AP158" t="inlineStr"/>
+      <c r="AQ158" t="inlineStr"/>
+      <c r="AR158" t="inlineStr"/>
+      <c r="AS158" t="inlineStr"/>
+      <c r="AT158" t="inlineStr"/>
+      <c r="AU158" t="inlineStr"/>
+      <c r="AV158" t="inlineStr"/>
+      <c r="AW158" t="inlineStr"/>
+      <c r="AX158" t="inlineStr"/>
+      <c r="AY158" t="inlineStr"/>
+      <c r="AZ158" t="inlineStr"/>
+      <c r="BA158" t="inlineStr"/>
+      <c r="BB158" t="inlineStr"/>
+      <c r="BC158" t="inlineStr"/>
+      <c r="BD158" t="inlineStr"/>
+      <c r="BE158" t="inlineStr"/>
+      <c r="BF158" t="inlineStr"/>
+      <c r="BG158" t="inlineStr"/>
+      <c r="BH158" t="inlineStr"/>
+      <c r="BI158" t="inlineStr"/>
+      <c r="BJ158" t="inlineStr"/>
+      <c r="BK158" t="inlineStr"/>
+      <c r="BL158" t="inlineStr"/>
+      <c r="BM158" t="inlineStr"/>
+      <c r="BN158" t="inlineStr"/>
+      <c r="BO158" t="inlineStr"/>
+      <c r="BP158" t="inlineStr"/>
+      <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
+      <c r="BS158" t="inlineStr"/>
+      <c r="BT158" t="inlineStr"/>
+      <c r="BU158" t="inlineStr"/>
+      <c r="BV158" t="inlineStr"/>
+      <c r="BW158" t="inlineStr"/>
+      <c r="BX158" t="inlineStr"/>
+      <c r="BY158" t="inlineStr"/>
+      <c r="BZ158" t="inlineStr"/>
+      <c r="CA158" t="inlineStr"/>
+      <c r="CB158" t="inlineStr"/>
+      <c r="CC158" t="inlineStr"/>
+      <c r="CD158" t="inlineStr"/>
+      <c r="CE158" t="inlineStr"/>
+      <c r="CF158" t="inlineStr"/>
+      <c r="CG158" t="inlineStr"/>
+      <c r="CH158" t="inlineStr"/>
+      <c r="CI158" t="inlineStr"/>
+      <c r="CJ158" t="inlineStr"/>
+      <c r="CK158" t="inlineStr"/>
+      <c r="CL158" t="inlineStr"/>
+      <c r="CM158" t="inlineStr"/>
+      <c r="CN158" t="inlineStr"/>
+      <c r="CO158" t="inlineStr"/>
+      <c r="CP158" t="inlineStr"/>
+      <c r="CQ158" t="inlineStr"/>
+      <c r="CR158" t="inlineStr"/>
+      <c r="CS158" t="inlineStr"/>
+      <c r="CT158" t="inlineStr"/>
+      <c r="CU158" t="inlineStr"/>
+      <c r="CV158" t="inlineStr"/>
+      <c r="CW158" t="inlineStr"/>
+      <c r="CX158" t="inlineStr"/>
+      <c r="CY158" t="inlineStr"/>
+      <c r="CZ158" t="inlineStr"/>
+      <c r="DA158" t="inlineStr"/>
+      <c r="DB158" t="inlineStr"/>
+      <c r="DC158" t="inlineStr"/>
+      <c r="DD158" t="inlineStr"/>
+      <c r="DE158" t="inlineStr"/>
+      <c r="DF158" t="inlineStr"/>
+      <c r="DG158" t="inlineStr"/>
+      <c r="DH158" t="inlineStr"/>
+      <c r="DI158" t="inlineStr"/>
+      <c r="DJ158" t="inlineStr"/>
+      <c r="DK158" t="inlineStr"/>
+      <c r="DL158" t="inlineStr"/>
+      <c r="DM158" t="inlineStr"/>
+      <c r="DN158" t="inlineStr"/>
+      <c r="DO158" t="inlineStr"/>
+      <c r="DP158" t="inlineStr"/>
+      <c r="DQ158" t="inlineStr"/>
+      <c r="DR158" t="inlineStr"/>
+      <c r="DS158" t="inlineStr"/>
+      <c r="DT158" t="inlineStr"/>
+      <c r="DU158" t="inlineStr"/>
+      <c r="DV158" t="inlineStr"/>
+      <c r="DW158" t="inlineStr"/>
+      <c r="DX158" t="inlineStr"/>
+      <c r="DY158" t="inlineStr"/>
+      <c r="DZ158" t="inlineStr"/>
+      <c r="EA158" t="inlineStr"/>
+      <c r="EB158" t="inlineStr"/>
+      <c r="EC158" t="inlineStr"/>
+      <c r="ED158" t="inlineStr"/>
+      <c r="EE158" t="inlineStr"/>
+      <c r="EF158" t="inlineStr"/>
+      <c r="EG158" t="inlineStr"/>
+      <c r="EH158" t="inlineStr"/>
+      <c r="EI158" t="inlineStr"/>
+      <c r="EJ158" t="inlineStr"/>
+      <c r="EK158" t="inlineStr"/>
+      <c r="EL158" t="inlineStr"/>
+      <c r="EM158" t="inlineStr"/>
+      <c r="EN158" t="inlineStr"/>
+      <c r="EO158" t="inlineStr"/>
+      <c r="EP158" t="inlineStr"/>
+      <c r="EQ158" t="inlineStr"/>
+      <c r="ER158" t="inlineStr"/>
+      <c r="ES158" t="inlineStr"/>
+      <c r="ET158" t="inlineStr"/>
+      <c r="EU158" t="inlineStr"/>
+      <c r="EV158" t="inlineStr"/>
+      <c r="EW158" t="inlineStr"/>
+      <c r="EX158" t="inlineStr"/>
+      <c r="EY158" t="inlineStr"/>
+      <c r="EZ158" t="inlineStr"/>
+      <c r="FA158" t="inlineStr"/>
+      <c r="FB158" t="inlineStr"/>
+      <c r="FC158" t="inlineStr"/>
+      <c r="FD158" t="inlineStr"/>
+      <c r="FE158" t="inlineStr"/>
+      <c r="FF158" t="inlineStr"/>
+      <c r="FG158" t="inlineStr"/>
+      <c r="FH158" t="inlineStr"/>
+      <c r="FI158" t="inlineStr"/>
+      <c r="FJ158" t="inlineStr"/>
+      <c r="FK158" t="inlineStr"/>
+      <c r="FL158" t="inlineStr"/>
+      <c r="FM158" t="inlineStr"/>
+      <c r="FN158" t="inlineStr"/>
+      <c r="FO158" t="inlineStr"/>
+      <c r="FP158" t="inlineStr"/>
+      <c r="FQ158" t="inlineStr"/>
+      <c r="FR158" t="inlineStr"/>
+      <c r="FS158" t="inlineStr"/>
+      <c r="FT158" t="inlineStr"/>
+      <c r="FU158" t="inlineStr"/>
+      <c r="FV158" t="inlineStr"/>
+      <c r="FW158" t="inlineStr"/>
+      <c r="FX158" t="inlineStr"/>
+      <c r="FY158" t="inlineStr"/>
+      <c r="FZ158" t="inlineStr"/>
+      <c r="GA158" t="inlineStr"/>
+      <c r="GB158" t="inlineStr"/>
+      <c r="GC158" t="inlineStr"/>
+      <c r="GD158" t="inlineStr"/>
+      <c r="GE158" t="inlineStr"/>
+      <c r="GF158" t="inlineStr"/>
+      <c r="GG158" t="inlineStr"/>
+      <c r="GH158" t="inlineStr"/>
+      <c r="GI158" t="inlineStr"/>
+      <c r="GJ158" t="inlineStr"/>
+      <c r="GK158" t="inlineStr"/>
+      <c r="GL158" t="inlineStr"/>
+      <c r="GM158" t="inlineStr"/>
+      <c r="GN158" t="inlineStr"/>
+      <c r="GO158" t="inlineStr"/>
+      <c r="GP158" t="inlineStr"/>
+      <c r="GQ158" t="inlineStr"/>
+      <c r="GR158" t="inlineStr"/>
+      <c r="GS158" t="inlineStr"/>
+      <c r="GT158" t="inlineStr"/>
+      <c r="GU158" t="inlineStr"/>
+      <c r="GV158" t="inlineStr"/>
+      <c r="GW158" t="inlineStr"/>
+      <c r="GX158" t="inlineStr"/>
+      <c r="GY158" t="inlineStr"/>
+      <c r="GZ158" t="inlineStr"/>
+      <c r="HA158" t="inlineStr"/>
+      <c r="HB158" t="inlineStr"/>
+      <c r="HC158" t="inlineStr"/>
+      <c r="HD158" t="inlineStr"/>
+      <c r="HE158" t="inlineStr"/>
+      <c r="HF158" t="inlineStr"/>
+      <c r="HG158" t="inlineStr"/>
+      <c r="HH158" t="inlineStr"/>
+      <c r="HI158" t="inlineStr"/>
+      <c r="HJ158" t="inlineStr"/>
+      <c r="HK158" t="inlineStr"/>
+      <c r="HL158" t="inlineStr"/>
+      <c r="HM158" t="inlineStr"/>
+      <c r="HN158" t="inlineStr"/>
+      <c r="HO158" t="inlineStr"/>
+      <c r="HP158" t="inlineStr"/>
+      <c r="HQ158" t="inlineStr"/>
+      <c r="HR158" t="inlineStr"/>
+      <c r="HS158" t="inlineStr"/>
+      <c r="HT158" t="inlineStr"/>
+      <c r="HU158" t="inlineStr"/>
+      <c r="HV158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Serratia marcescens</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
+          <t>Rossellomorea aquimaris</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Bacillus aquimaris</t>
+        </is>
+      </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Bacillus marcescens</t>
+          <t>Bacillus aquimaris</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Serratia marcescens subsp. marcescens</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Serratia marcescens subsp. sakuensis</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Enterobacteriaceae bacterium KO4</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Pantoea sp. NAB7</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Serratia sp. NCIM 2919</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>Serratia sp. UENF-22GI</t>
-        </is>
-      </c>
+          <t>Bacillus sp. JP44SK28</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
@@ -43016,301 +42052,1193 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Serratia proteamaculans</t>
+          <t>Salmonella enterica</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Erwinia proteamaculans</t>
+          <t>Bacillus cholerae-suis</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Pseudomonas proteamaculans</t>
+          <t>Salmonella cholerae-suis</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Xantomonas proteamaculans</t>
+          <t>Salmonella choleraesuis</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Serratia proteamaculans subsp. proteamaculans</t>
+          <t>Salmonella enterica ser. choleraesuis</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Serratia proteamaculans subsp. proteamaculans (Paine and Stansfield 1919) Grimont et al. 1978</t>
+          <t>Salmonella sp. 22OH10_CL01-S1</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Serratia sp. BZ56</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr"/>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr"/>
-      <c r="AE160" t="inlineStr"/>
-      <c r="AF160" t="inlineStr"/>
-      <c r="AG160" t="inlineStr"/>
-      <c r="AH160" t="inlineStr"/>
-      <c r="AI160" t="inlineStr"/>
-      <c r="AJ160" t="inlineStr"/>
-      <c r="AK160" t="inlineStr"/>
-      <c r="AL160" t="inlineStr"/>
-      <c r="AM160" t="inlineStr"/>
-      <c r="AN160" t="inlineStr"/>
-      <c r="AO160" t="inlineStr"/>
-      <c r="AP160" t="inlineStr"/>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr"/>
-      <c r="AS160" t="inlineStr"/>
-      <c r="AT160" t="inlineStr"/>
-      <c r="AU160" t="inlineStr"/>
-      <c r="AV160" t="inlineStr"/>
-      <c r="AW160" t="inlineStr"/>
-      <c r="AX160" t="inlineStr"/>
-      <c r="AY160" t="inlineStr"/>
-      <c r="AZ160" t="inlineStr"/>
-      <c r="BA160" t="inlineStr"/>
-      <c r="BB160" t="inlineStr"/>
-      <c r="BC160" t="inlineStr"/>
-      <c r="BD160" t="inlineStr"/>
-      <c r="BE160" t="inlineStr"/>
-      <c r="BF160" t="inlineStr"/>
-      <c r="BG160" t="inlineStr"/>
-      <c r="BH160" t="inlineStr"/>
-      <c r="BI160" t="inlineStr"/>
-      <c r="BJ160" t="inlineStr"/>
-      <c r="BK160" t="inlineStr"/>
-      <c r="BL160" t="inlineStr"/>
-      <c r="BM160" t="inlineStr"/>
-      <c r="BN160" t="inlineStr"/>
-      <c r="BO160" t="inlineStr"/>
-      <c r="BP160" t="inlineStr"/>
-      <c r="BQ160" t="inlineStr"/>
-      <c r="BR160" t="inlineStr"/>
-      <c r="BS160" t="inlineStr"/>
-      <c r="BT160" t="inlineStr"/>
-      <c r="BU160" t="inlineStr"/>
-      <c r="BV160" t="inlineStr"/>
-      <c r="BW160" t="inlineStr"/>
-      <c r="BX160" t="inlineStr"/>
-      <c r="BY160" t="inlineStr"/>
-      <c r="BZ160" t="inlineStr"/>
-      <c r="CA160" t="inlineStr"/>
-      <c r="CB160" t="inlineStr"/>
-      <c r="CC160" t="inlineStr"/>
-      <c r="CD160" t="inlineStr"/>
-      <c r="CE160" t="inlineStr"/>
-      <c r="CF160" t="inlineStr"/>
-      <c r="CG160" t="inlineStr"/>
-      <c r="CH160" t="inlineStr"/>
-      <c r="CI160" t="inlineStr"/>
-      <c r="CJ160" t="inlineStr"/>
-      <c r="CK160" t="inlineStr"/>
-      <c r="CL160" t="inlineStr"/>
-      <c r="CM160" t="inlineStr"/>
-      <c r="CN160" t="inlineStr"/>
-      <c r="CO160" t="inlineStr"/>
-      <c r="CP160" t="inlineStr"/>
-      <c r="CQ160" t="inlineStr"/>
-      <c r="CR160" t="inlineStr"/>
-      <c r="CS160" t="inlineStr"/>
-      <c r="CT160" t="inlineStr"/>
-      <c r="CU160" t="inlineStr"/>
-      <c r="CV160" t="inlineStr"/>
-      <c r="CW160" t="inlineStr"/>
-      <c r="CX160" t="inlineStr"/>
-      <c r="CY160" t="inlineStr"/>
-      <c r="CZ160" t="inlineStr"/>
-      <c r="DA160" t="inlineStr"/>
-      <c r="DB160" t="inlineStr"/>
-      <c r="DC160" t="inlineStr"/>
-      <c r="DD160" t="inlineStr"/>
-      <c r="DE160" t="inlineStr"/>
-      <c r="DF160" t="inlineStr"/>
-      <c r="DG160" t="inlineStr"/>
-      <c r="DH160" t="inlineStr"/>
-      <c r="DI160" t="inlineStr"/>
-      <c r="DJ160" t="inlineStr"/>
-      <c r="DK160" t="inlineStr"/>
-      <c r="DL160" t="inlineStr"/>
-      <c r="DM160" t="inlineStr"/>
-      <c r="DN160" t="inlineStr"/>
-      <c r="DO160" t="inlineStr"/>
-      <c r="DP160" t="inlineStr"/>
-      <c r="DQ160" t="inlineStr"/>
-      <c r="DR160" t="inlineStr"/>
-      <c r="DS160" t="inlineStr"/>
-      <c r="DT160" t="inlineStr"/>
-      <c r="DU160" t="inlineStr"/>
-      <c r="DV160" t="inlineStr"/>
-      <c r="DW160" t="inlineStr"/>
-      <c r="DX160" t="inlineStr"/>
-      <c r="DY160" t="inlineStr"/>
-      <c r="DZ160" t="inlineStr"/>
-      <c r="EA160" t="inlineStr"/>
-      <c r="EB160" t="inlineStr"/>
-      <c r="EC160" t="inlineStr"/>
-      <c r="ED160" t="inlineStr"/>
-      <c r="EE160" t="inlineStr"/>
-      <c r="EF160" t="inlineStr"/>
-      <c r="EG160" t="inlineStr"/>
-      <c r="EH160" t="inlineStr"/>
-      <c r="EI160" t="inlineStr"/>
-      <c r="EJ160" t="inlineStr"/>
-      <c r="EK160" t="inlineStr"/>
-      <c r="EL160" t="inlineStr"/>
-      <c r="EM160" t="inlineStr"/>
-      <c r="EN160" t="inlineStr"/>
-      <c r="EO160" t="inlineStr"/>
-      <c r="EP160" t="inlineStr"/>
-      <c r="EQ160" t="inlineStr"/>
-      <c r="ER160" t="inlineStr"/>
-      <c r="ES160" t="inlineStr"/>
-      <c r="ET160" t="inlineStr"/>
-      <c r="EU160" t="inlineStr"/>
-      <c r="EV160" t="inlineStr"/>
-      <c r="EW160" t="inlineStr"/>
-      <c r="EX160" t="inlineStr"/>
-      <c r="EY160" t="inlineStr"/>
-      <c r="EZ160" t="inlineStr"/>
-      <c r="FA160" t="inlineStr"/>
-      <c r="FB160" t="inlineStr"/>
-      <c r="FC160" t="inlineStr"/>
-      <c r="FD160" t="inlineStr"/>
-      <c r="FE160" t="inlineStr"/>
-      <c r="FF160" t="inlineStr"/>
-      <c r="FG160" t="inlineStr"/>
-      <c r="FH160" t="inlineStr"/>
-      <c r="FI160" t="inlineStr"/>
-      <c r="FJ160" t="inlineStr"/>
-      <c r="FK160" t="inlineStr"/>
-      <c r="FL160" t="inlineStr"/>
-      <c r="FM160" t="inlineStr"/>
-      <c r="FN160" t="inlineStr"/>
-      <c r="FO160" t="inlineStr"/>
-      <c r="FP160" t="inlineStr"/>
-      <c r="FQ160" t="inlineStr"/>
-      <c r="FR160" t="inlineStr"/>
-      <c r="FS160" t="inlineStr"/>
-      <c r="FT160" t="inlineStr"/>
-      <c r="FU160" t="inlineStr"/>
-      <c r="FV160" t="inlineStr"/>
-      <c r="FW160" t="inlineStr"/>
-      <c r="FX160" t="inlineStr"/>
-      <c r="FY160" t="inlineStr"/>
-      <c r="FZ160" t="inlineStr"/>
-      <c r="GA160" t="inlineStr"/>
-      <c r="GB160" t="inlineStr"/>
-      <c r="GC160" t="inlineStr"/>
-      <c r="GD160" t="inlineStr"/>
-      <c r="GE160" t="inlineStr"/>
-      <c r="GF160" t="inlineStr"/>
-      <c r="GG160" t="inlineStr"/>
-      <c r="GH160" t="inlineStr"/>
-      <c r="GI160" t="inlineStr"/>
-      <c r="GJ160" t="inlineStr"/>
-      <c r="GK160" t="inlineStr"/>
-      <c r="GL160" t="inlineStr"/>
-      <c r="GM160" t="inlineStr"/>
-      <c r="GN160" t="inlineStr"/>
-      <c r="GO160" t="inlineStr"/>
-      <c r="GP160" t="inlineStr"/>
-      <c r="GQ160" t="inlineStr"/>
-      <c r="GR160" t="inlineStr"/>
-      <c r="GS160" t="inlineStr"/>
-      <c r="GT160" t="inlineStr"/>
-      <c r="GU160" t="inlineStr"/>
-      <c r="GV160" t="inlineStr"/>
-      <c r="GW160" t="inlineStr"/>
-      <c r="GX160" t="inlineStr"/>
-      <c r="GY160" t="inlineStr"/>
-      <c r="GZ160" t="inlineStr"/>
-      <c r="HA160" t="inlineStr"/>
-      <c r="HB160" t="inlineStr"/>
-      <c r="HC160" t="inlineStr"/>
-      <c r="HD160" t="inlineStr"/>
-      <c r="HE160" t="inlineStr"/>
-      <c r="HF160" t="inlineStr"/>
-      <c r="HG160" t="inlineStr"/>
-      <c r="HH160" t="inlineStr"/>
-      <c r="HI160" t="inlineStr"/>
-      <c r="HJ160" t="inlineStr"/>
-      <c r="HK160" t="inlineStr"/>
-      <c r="HL160" t="inlineStr"/>
-      <c r="HM160" t="inlineStr"/>
-      <c r="HN160" t="inlineStr"/>
-      <c r="HO160" t="inlineStr"/>
-      <c r="HP160" t="inlineStr"/>
-      <c r="HQ160" t="inlineStr"/>
-      <c r="HR160" t="inlineStr"/>
-      <c r="HS160" t="inlineStr"/>
-      <c r="HT160" t="inlineStr"/>
-      <c r="HU160" t="inlineStr"/>
-      <c r="HV160" t="inlineStr"/>
+          <t>Salmonella sp. 22OH12_PC07-S1</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH01_CG01-S1</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH01_GT01-S1</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH01_GT02-S1</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH02_GT02-S1</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH04_CG01-S1</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH05_CB01-S1</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH06_CG01-S1</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH06_CH01-S1</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH06_GT01-S1</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH07_CB02-S1</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH07_GT04-S1</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH08_CG01-S1</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH10_CB03-S1</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. 23OH10_CG01-S1</t>
+        </is>
+      </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 200</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 238</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 239</t>
+        </is>
+      </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 240</t>
+        </is>
+      </c>
+      <c r="AA160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 253</t>
+        </is>
+      </c>
+      <c r="AB160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 257</t>
+        </is>
+      </c>
+      <c r="AC160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 265</t>
+        </is>
+      </c>
+      <c r="AD160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 266</t>
+        </is>
+      </c>
+      <c r="AE160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 267</t>
+        </is>
+      </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 268</t>
+        </is>
+      </c>
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 270</t>
+        </is>
+      </c>
+      <c r="AH160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 28</t>
+        </is>
+      </c>
+      <c r="AI160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 289</t>
+        </is>
+      </c>
+      <c r="AJ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 291</t>
+        </is>
+      </c>
+      <c r="AK160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 294</t>
+        </is>
+      </c>
+      <c r="AL160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 299</t>
+        </is>
+      </c>
+      <c r="AM160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 301</t>
+        </is>
+      </c>
+      <c r="AN160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 327</t>
+        </is>
+      </c>
+      <c r="AO160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. AMC 90</t>
+        </is>
+      </c>
+      <c r="AP160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013420</t>
+        </is>
+      </c>
+      <c r="AQ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013433</t>
+        </is>
+      </c>
+      <c r="AR160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013434</t>
+        </is>
+      </c>
+      <c r="AS160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013435</t>
+        </is>
+      </c>
+      <c r="AT160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013436</t>
+        </is>
+      </c>
+      <c r="AU160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013437</t>
+        </is>
+      </c>
+      <c r="AV160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013438</t>
+        </is>
+      </c>
+      <c r="AW160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013439</t>
+        </is>
+      </c>
+      <c r="AX160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013440</t>
+        </is>
+      </c>
+      <c r="AY160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013468</t>
+        </is>
+      </c>
+      <c r="AZ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013469</t>
+        </is>
+      </c>
+      <c r="BA160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013470</t>
+        </is>
+      </c>
+      <c r="BB160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013495</t>
+        </is>
+      </c>
+      <c r="BC160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013496</t>
+        </is>
+      </c>
+      <c r="BD160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013499</t>
+        </is>
+      </c>
+      <c r="BE160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013500</t>
+        </is>
+      </c>
+      <c r="BF160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013513</t>
+        </is>
+      </c>
+      <c r="BG160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013514</t>
+        </is>
+      </c>
+      <c r="BH160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013515</t>
+        </is>
+      </c>
+      <c r="BI160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013516</t>
+        </is>
+      </c>
+      <c r="BJ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013517</t>
+        </is>
+      </c>
+      <c r="BK160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013518</t>
+        </is>
+      </c>
+      <c r="BL160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013519</t>
+        </is>
+      </c>
+      <c r="BM160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013520</t>
+        </is>
+      </c>
+      <c r="BN160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013521</t>
+        </is>
+      </c>
+      <c r="BO160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013522</t>
+        </is>
+      </c>
+      <c r="BP160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013523</t>
+        </is>
+      </c>
+      <c r="BQ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013524</t>
+        </is>
+      </c>
+      <c r="BR160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013525</t>
+        </is>
+      </c>
+      <c r="BS160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013526</t>
+        </is>
+      </c>
+      <c r="BT160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. FDA00013597</t>
+        </is>
+      </c>
+      <c r="BU160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. HC-257</t>
+        </is>
+      </c>
+      <c r="BV160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. IA1-174</t>
+        </is>
+      </c>
+      <c r="BW160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-A1</t>
+        </is>
+      </c>
+      <c r="BX160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-A2</t>
+        </is>
+      </c>
+      <c r="BY160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-A3</t>
+        </is>
+      </c>
+      <c r="BZ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-C</t>
+        </is>
+      </c>
+      <c r="CA160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-D1</t>
+        </is>
+      </c>
+      <c r="CB160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-D2</t>
+        </is>
+      </c>
+      <c r="CC160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-D3</t>
+        </is>
+      </c>
+      <c r="CD160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-D4</t>
+        </is>
+      </c>
+      <c r="CE160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-Z1</t>
+        </is>
+      </c>
+      <c r="CF160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH3-Z2</t>
+        </is>
+      </c>
+      <c r="CG160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH4-A2</t>
+        </is>
+      </c>
+      <c r="CH160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH4-A3</t>
+        </is>
+      </c>
+      <c r="CI160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH4-A4</t>
+        </is>
+      </c>
+      <c r="CJ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. MH4-Z2</t>
+        </is>
+      </c>
+      <c r="CK160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. NYVetLIRN-85</t>
+        </is>
+      </c>
+      <c r="CL160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. NYVetLIRN-86</t>
+        </is>
+      </c>
+      <c r="CM160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. NYVetLIRN-87</t>
+        </is>
+      </c>
+      <c r="CN160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. NYVetLIRN-88</t>
+        </is>
+      </c>
+      <c r="CO160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-15149</t>
+        </is>
+      </c>
+      <c r="CP160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-15334</t>
+        </is>
+      </c>
+      <c r="CQ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-15363</t>
+        </is>
+      </c>
+      <c r="CR160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-16886</t>
+        </is>
+      </c>
+      <c r="CS160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-16934</t>
+        </is>
+      </c>
+      <c r="CT160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-1</t>
+        </is>
+      </c>
+      <c r="CU160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-10</t>
+        </is>
+      </c>
+      <c r="CV160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-11</t>
+        </is>
+      </c>
+      <c r="CW160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-12</t>
+        </is>
+      </c>
+      <c r="CX160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-13</t>
+        </is>
+      </c>
+      <c r="CY160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-14</t>
+        </is>
+      </c>
+      <c r="CZ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-15</t>
+        </is>
+      </c>
+      <c r="DA160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-2</t>
+        </is>
+      </c>
+      <c r="DB160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-3</t>
+        </is>
+      </c>
+      <c r="DC160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-4</t>
+        </is>
+      </c>
+      <c r="DD160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-5</t>
+        </is>
+      </c>
+      <c r="DE160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-6</t>
+        </is>
+      </c>
+      <c r="DF160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-7</t>
+        </is>
+      </c>
+      <c r="DG160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-8</t>
+        </is>
+      </c>
+      <c r="DH160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18132-9</t>
+        </is>
+      </c>
+      <c r="DI160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18281-1</t>
+        </is>
+      </c>
+      <c r="DJ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18281-2</t>
+        </is>
+      </c>
+      <c r="DK160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18411</t>
+        </is>
+      </c>
+      <c r="DL160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18446</t>
+        </is>
+      </c>
+      <c r="DM160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18447</t>
+        </is>
+      </c>
+      <c r="DN160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-18941</t>
+        </is>
+      </c>
+      <c r="DO160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-19201</t>
+        </is>
+      </c>
+      <c r="DP160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-19951-1</t>
+        </is>
+      </c>
+      <c r="DQ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20073-2T</t>
+        </is>
+      </c>
+      <c r="DR160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20117-1</t>
+        </is>
+      </c>
+      <c r="DS160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20132-7</t>
+        </is>
+      </c>
+      <c r="DT160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20225-1-S</t>
+        </is>
+      </c>
+      <c r="DU160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20225-2-S</t>
+        </is>
+      </c>
+      <c r="DV160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20299-1</t>
+        </is>
+      </c>
+      <c r="DW160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20299-2</t>
+        </is>
+      </c>
+      <c r="DX160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20299-3</t>
+        </is>
+      </c>
+      <c r="DY160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20299-4</t>
+        </is>
+      </c>
+      <c r="DZ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20299-5</t>
+        </is>
+      </c>
+      <c r="EA160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20299-6</t>
+        </is>
+      </c>
+      <c r="EB160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20299-7</t>
+        </is>
+      </c>
+      <c r="EC160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20299-8</t>
+        </is>
+      </c>
+      <c r="ED160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20386</t>
+        </is>
+      </c>
+      <c r="EE160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20895</t>
+        </is>
+      </c>
+      <c r="EF160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-20897</t>
+        </is>
+      </c>
+      <c r="EG160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-21102</t>
+        </is>
+      </c>
+      <c r="EH160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-21112</t>
+        </is>
+      </c>
+      <c r="EI160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-21175</t>
+        </is>
+      </c>
+      <c r="EJ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-21493-S</t>
+        </is>
+      </c>
+      <c r="EK160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-21628</t>
+        </is>
+      </c>
+      <c r="EL160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-21629</t>
+        </is>
+      </c>
+      <c r="EM160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-21765</t>
+        </is>
+      </c>
+      <c r="EN160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-21865-2</t>
+        </is>
+      </c>
+      <c r="EO160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-22026</t>
+        </is>
+      </c>
+      <c r="EP160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-22045</t>
+        </is>
+      </c>
+      <c r="EQ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-22168</t>
+        </is>
+      </c>
+      <c r="ER160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-22269-1</t>
+        </is>
+      </c>
+      <c r="ES160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. OH-18-22479</t>
+        </is>
+      </c>
+      <c r="ET160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-LA-TX-0007</t>
+        </is>
+      </c>
+      <c r="EU160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-LA-TX-0008</t>
+        </is>
+      </c>
+      <c r="EV160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-LA-TX-0009</t>
+        </is>
+      </c>
+      <c r="EW160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-MS-0001</t>
+        </is>
+      </c>
+      <c r="EX160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-MS-0002</t>
+        </is>
+      </c>
+      <c r="EY160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-MS-0003</t>
+        </is>
+      </c>
+      <c r="EZ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-NJ-0001</t>
+        </is>
+      </c>
+      <c r="FA160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0001</t>
+        </is>
+      </c>
+      <c r="FB160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0004</t>
+        </is>
+      </c>
+      <c r="FC160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0005</t>
+        </is>
+      </c>
+      <c r="FD160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0006</t>
+        </is>
+      </c>
+      <c r="FE160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-NY-UP-NBC-0007</t>
+        </is>
+      </c>
+      <c r="FF160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-IN-0001</t>
+        </is>
+      </c>
+      <c r="FG160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-IN-0002</t>
+        </is>
+      </c>
+      <c r="FH160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-IN-0003</t>
+        </is>
+      </c>
+      <c r="FI160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-IN-0005</t>
+        </is>
+      </c>
+      <c r="FJ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-IN-0007</t>
+        </is>
+      </c>
+      <c r="FK160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-WA-0012</t>
+        </is>
+      </c>
+      <c r="FL160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-WA-0013</t>
+        </is>
+      </c>
+      <c r="FM160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-WA-0014</t>
+        </is>
+      </c>
+      <c r="FN160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. SAL-18-VL-OH-WA-0017</t>
+        </is>
+      </c>
+      <c r="FO160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_251</t>
+        </is>
+      </c>
+      <c r="FP160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_258</t>
+        </is>
+      </c>
+      <c r="FQ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_262</t>
+        </is>
+      </c>
+      <c r="FR160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_264</t>
+        </is>
+      </c>
+      <c r="FS160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_265</t>
+        </is>
+      </c>
+      <c r="FT160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_266</t>
+        </is>
+      </c>
+      <c r="FU160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_267</t>
+        </is>
+      </c>
+      <c r="FV160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_269</t>
+        </is>
+      </c>
+      <c r="FW160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_274</t>
+        </is>
+      </c>
+      <c r="FX160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_279</t>
+        </is>
+      </c>
+      <c r="FY160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_282</t>
+        </is>
+      </c>
+      <c r="FZ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_284</t>
+        </is>
+      </c>
+      <c r="GA160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_287</t>
+        </is>
+      </c>
+      <c r="GB160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_289</t>
+        </is>
+      </c>
+      <c r="GC160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_297</t>
+        </is>
+      </c>
+      <c r="GD160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_298</t>
+        </is>
+      </c>
+      <c r="GE160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_299</t>
+        </is>
+      </c>
+      <c r="GF160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_303</t>
+        </is>
+      </c>
+      <c r="GG160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_304</t>
+        </is>
+      </c>
+      <c r="GH160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_305</t>
+        </is>
+      </c>
+      <c r="GI160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_306</t>
+        </is>
+      </c>
+      <c r="GJ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_307</t>
+        </is>
+      </c>
+      <c r="GK160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_308</t>
+        </is>
+      </c>
+      <c r="GL160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_309</t>
+        </is>
+      </c>
+      <c r="GM160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_310</t>
+        </is>
+      </c>
+      <c r="GN160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_311</t>
+        </is>
+      </c>
+      <c r="GO160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_312</t>
+        </is>
+      </c>
+      <c r="GP160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_313</t>
+        </is>
+      </c>
+      <c r="GQ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_314</t>
+        </is>
+      </c>
+      <c r="GR160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_315</t>
+        </is>
+      </c>
+      <c r="GS160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_316</t>
+        </is>
+      </c>
+      <c r="GT160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_317</t>
+        </is>
+      </c>
+      <c r="GU160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_318</t>
+        </is>
+      </c>
+      <c r="GV160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_319</t>
+        </is>
+      </c>
+      <c r="GW160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_320</t>
+        </is>
+      </c>
+      <c r="GX160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_321</t>
+        </is>
+      </c>
+      <c r="GY160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_322</t>
+        </is>
+      </c>
+      <c r="GZ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_323</t>
+        </is>
+      </c>
+      <c r="HA160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_324</t>
+        </is>
+      </c>
+      <c r="HB160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_325</t>
+        </is>
+      </c>
+      <c r="HC160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_326</t>
+        </is>
+      </c>
+      <c r="HD160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_327</t>
+        </is>
+      </c>
+      <c r="HE160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_328</t>
+        </is>
+      </c>
+      <c r="HF160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_329</t>
+        </is>
+      </c>
+      <c r="HG160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_330</t>
+        </is>
+      </c>
+      <c r="HH160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_331</t>
+        </is>
+      </c>
+      <c r="HI160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_332</t>
+        </is>
+      </c>
+      <c r="HJ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_333</t>
+        </is>
+      </c>
+      <c r="HK160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_334</t>
+        </is>
+      </c>
+      <c r="HL160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_335</t>
+        </is>
+      </c>
+      <c r="HM160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_338</t>
+        </is>
+      </c>
+      <c r="HN160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_345</t>
+        </is>
+      </c>
+      <c r="HO160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_352</t>
+        </is>
+      </c>
+      <c r="HP160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_353</t>
+        </is>
+      </c>
+      <c r="HQ160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_357</t>
+        </is>
+      </c>
+      <c r="HR160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_358</t>
+        </is>
+      </c>
+      <c r="HS160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TTU_359</t>
+        </is>
+      </c>
+      <c r="HT160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. TXACF1801691</t>
+        </is>
+      </c>
+      <c r="HU160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. Z-172</t>
+        </is>
+      </c>
+      <c r="HV160" t="inlineStr">
+        <is>
+          <t>Salmonella sp. ZH-248</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Shewanella algae</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Shewanella haliotis</t>
-        </is>
-      </c>
+          <t>Serratia marcescens</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Shewanella alga</t>
+          <t>Bacillus marcescens</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Shewanella haliotis</t>
+          <t>Serratia marcescens subsp. marcescens</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Shewanella upenei</t>
+          <t>Serratia marcescens subsp. sakuensis</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Shewanella sp. 20-23R</t>
+          <t>Enterobacteriaceae bacterium KO4</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Shewanella sp. CNZ-1</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
+          <t>Pantoea sp. NAB7</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Serratia sp. NCIM 2919</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Serratia sp. UENF-22GI</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
@@ -43536,24 +43464,40 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Shewanella baltica</t>
+          <t>Serratia proteamaculans</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Shewanella putrefaciens Owen's group II</t>
+          <t>Erwinia proteamaculans</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Shewanella sp. IRL551</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
+          <t>Pseudomonas proteamaculans</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Xantomonas proteamaculans</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Serratia proteamaculans subsp. proteamaculans</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Serratia proteamaculans subsp. proteamaculans (Paine and Stansfield 1919) Grimont et al. 1978</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Serratia sp. BZ56</t>
+        </is>
+      </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -43780,19 +43724,39 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Shewanella halifaxensis</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
+          <t>Shewanella algae</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Shewanella upenei</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Shewanella sp. HAW-EB4</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
+          <t>Shewanella alga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Shewanella haliotis</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Shewanella upenei</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Shewanella sp. 20-23R</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Shewanella sp. CNZ-1</t>
+        </is>
+      </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -44020,16 +43984,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Shewanella pneumatophori</t>
+          <t>Shewanella baltica</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Shewanella sp. SCRC-2738</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>Shewanella putrefaciens Owen's group II</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Shewanella sp. IRL551</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
@@ -44260,20 +44228,16 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Shewanella putrefaciens</t>
+          <t>Shewanella halifaxensis</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Alteromonas putrefaciens</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Pseudomonas putrefaciens</t>
-        </is>
-      </c>
+          <t>Shewanella sp. HAW-EB4</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
@@ -44504,11 +44468,15 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Shewanella woodyi</t>
+          <t>Shewanella pneumatophori</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Shewanella sp. SCRC-2738</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
@@ -44740,16 +44708,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Shewanella xiamenensis</t>
+          <t>Shewanella putrefaciens</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Shewanella sp. S4</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>Alteromonas putrefaciens</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Pseudomonas putrefaciens</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
@@ -44980,20 +44952,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Soonwooa buanensis</t>
+          <t>Shewanella woodyi</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Chryseobacterium buanense (Joung et al. 2010) García-López et al. 2020</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Flavobacteriaceae bacterium HM0024</t>
-        </is>
-      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
@@ -45224,13 +45188,13 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Staphylococcus cohnii</t>
+          <t>Shewanella xiamenensis</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Staphylococcus sp. AL1</t>
+          <t>Shewanella sp. S4</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -45464,50 +45428,26 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Staphylococcus saprophyticus</t>
+          <t>Soonwooa buanensis</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Staphylococcus saprophyticus subsp. bovis</t>
+          <t>Chryseobacterium buanense (Joung et al. 2010) García-López et al. 2020</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Staphylococcus saprophyticus ATCC 15305</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Staphylococcus saprophyticus ATCC15305</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Staphylococcus saprophyticus ATCC15305T</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Staphylococcus saprophyticus MAFF911473</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Staphylococcus saprophyticus NCTC 07292</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>Staphylococcus saprophyticus subsp. saprophyticus</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Staphylococcus sp. HAR3</t>
-        </is>
-      </c>
+          <t>Flavobacteriaceae bacterium HM0024</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
@@ -45732,80 +45672,28 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Stenotrophomonas maltophilia</t>
+          <t>Staphylococcus cohnii</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pseudomonas maltophilia (ex Hugh and Ryschenkow 1961) Hugh 1981</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Stenotrophomonas africana</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Xanthomonas maltiphilia</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Xanthomonas maltophilia</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Xanthomonas maltophilia (Hugh 1981) Swings et al. 1983</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. LMG 20596</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>Stenotrophomonas sp. ES-5</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Stenotrophomonas sp. ISSDS-759</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Stenotrophomonas sp. ISSDS-801</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Stenotrophomonas sp. ISSDS-818</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>Stenotrophomonas sp. K6303-5-2b</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>Stenotrophomonas sp. OUC_Est10</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>Stenotrophomonas sp. T6220-6-1b</t>
-        </is>
-      </c>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>Xanthomonadaceae bacterium OG-2</t>
-        </is>
-      </c>
+          <t>Staphylococcus sp. AL1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
@@ -46024,38 +45912,50 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Streptococcus agalactiae</t>
+          <t>Staphylococcus saprophyticus</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Streptoccocus de la mammite</t>
+          <t>Staphylococcus saprophyticus subsp. bovis</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Streptococcus agalactiae contagiosae</t>
+          <t>Staphylococcus saprophyticus ATCC 15305</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Streptococcus difficile</t>
+          <t>Staphylococcus saprophyticus ATCC15305</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Streptococcus difficilis</t>
+          <t>Staphylococcus saprophyticus ATCC15305T</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Streptococcus mastitidis</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+          <t>Staphylococcus saprophyticus MAFF911473</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Staphylococcus saprophyticus NCTC 07292</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Staphylococcus saprophyticus subsp. saprophyticus</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Staphylococcus sp. HAR3</t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -46280,32 +46180,80 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Streptococcus dysgalactiae</t>
+          <t>Stenotrophomonas maltophilia</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
-          <t>"Group II" Minett 1934</t>
+          <t>Pseudomonas maltophilia (ex Hugh and Ryschenkow 1961) Hugh 1981</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Streptococcus pseudogalactiae</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+          <t>Stenotrophomonas africana</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Xanthomonas maltiphilia</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Xanthomonas maltophilia</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Xanthomonas maltophilia (Hugh 1981) Swings et al. 1983</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. LMG 20596</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Stenotrophomonas sp. ES-5</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Stenotrophomonas sp. ISSDS-759</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Stenotrophomonas sp. ISSDS-801</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Stenotrophomonas sp. ISSDS-818</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Stenotrophomonas sp. K6303-5-2b</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>Stenotrophomonas sp. OUC_Est10</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Stenotrophomonas sp. T6220-6-1b</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Xanthomonadaceae bacterium OG-2</t>
+        </is>
+      </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
@@ -46524,15 +46472,35 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Streptococcus ictaluri</t>
+          <t>Streptococcus agalactiae</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Streptoccocus de la mammite</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Streptococcus agalactiae contagiosae</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Streptococcus difficile</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Streptococcus difficilis</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Streptococcus mastitidis</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -46760,16 +46728,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Streptococcus iniae</t>
+          <t>Streptococcus dysgalactiae</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Streptococcus shiloi</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
+          <t>"Group II" Minett 1934</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Streptococcus pseudogalactiae</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
@@ -47000,15 +46972,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Streptococcus parauberis</t>
+          <t>Streptococcus ictaluri</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Streptococcus uberis type (genotype) II</t>
-        </is>
-      </c>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
@@ -47240,13 +47208,13 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Streptococcus phocae</t>
+          <t>Streptococcus iniae</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Streptococcus phocae Skaar et al. 1994</t>
+          <t>Streptococcus shiloi</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -47480,11 +47448,15 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Streptococcus uberis</t>
+          <t>Streptococcus parauberis</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Streptococcus uberis type (genotype) II</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -47716,104 +47688,32 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Stutzerimonas stutzeri</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Pseudomonas stutzeri</t>
-        </is>
-      </c>
+          <t>Streptococcus phocae</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>"Pseudomonas stanieri" Mandel 1966</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Achromobacter sewerinii</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Achromobacter stutzeri</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Bacillus denitrificans II</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Bacillus nitrogenes</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Bacillus stutzeri</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>Pseudomonas perfectomarina</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Pseudomonas perfectomarina (ex ZoBell and Upham 1944) Baumann et al. 1983</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>Pseudomonas stutzeri (Lehmann and Neumann 1896) Sijderius 1946 (Approved Lists 1980)</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Stutzerimonas perfectomarina</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. CECRI-25/07</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. DSM 24582</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. G2C</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. JKR47</t>
-        </is>
-      </c>
-      <c r="Q179" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. MN7SW4</t>
-        </is>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. OS38A</t>
-        </is>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. PX-A-Ps.sp</t>
-        </is>
-      </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>Pseudomonas sp. PX-L-P.sp1</t>
-        </is>
-      </c>
+          <t>Streptococcus phocae Skaar et al. 1994</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
@@ -48028,15 +47928,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Tenacibaculum aiptasiae</t>
+          <t>Streptococcus uberis</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Tenacibaculum sp. a4</t>
-        </is>
-      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
@@ -48268,36 +48164,104 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Tenacibaculum discolor</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr"/>
+          <t>Stutzerimonas stutzeri</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Pseudomonas stutzeri</t>
+        </is>
+      </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Tenacibaculum sp. 4G03</t>
+          <t>"Pseudomonas stanieri" Mandel 1966</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Tenacibaculum sp. 9A5</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
+          <t>Achromobacter sewerinii</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Achromobacter stutzeri</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Bacillus denitrificans II</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Bacillus nitrogenes</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Bacillus stutzeri</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Pseudomonas perfectomarina</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Pseudomonas perfectomarina (ex ZoBell and Upham 1944) Baumann et al. 1983</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Pseudomonas stutzeri (Lehmann and Neumann 1896) Sijderius 1946 (Approved Lists 1980)</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Stutzerimonas perfectomarina</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. CECRI-25/07</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. DSM 24582</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. G2C</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. JKR47</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. MN7SW4</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. OS38A</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. PX-A-Ps.sp</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Pseudomonas sp. PX-L-P.sp1</t>
+        </is>
+      </c>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
@@ -48512,11 +48476,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Tenacibaculum gallaicum</t>
+          <t>Tenacibaculum aiptasiae</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Tenacibaculum sp. a4</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
@@ -48748,12 +48716,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Tenacibaculum mesophilum</t>
+          <t>Tenacibaculum discolor</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Tenacibaculum sp. 4G03</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Tenacibaculum sp. 9A5</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
@@ -48984,7 +48960,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Tenacibaculum soleae</t>
+          <t>Tenacibaculum gallaicum</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -49220,15 +49196,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Vibrio aestuarianus</t>
+          <t>Tenacibaculum mesophilum</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Listonella aestuarianus</t>
-        </is>
-      </c>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
@@ -49460,30 +49432,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vibrio alginolyticus</t>
+          <t>Tenacibaculum soleae</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Beneckea alginolytica</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Oceanomonas alginolytica</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Pseudomonas creosotensis</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PeIg0901</t>
-        </is>
-      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
@@ -49712,49 +49668,21 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Vibrio anguillarum</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Listonella anguillarum</t>
-        </is>
-      </c>
+          <t>Vibrio aestuarianus</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Achromobacter ichthyodermis</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Listonella anguillara</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Listonella anguillarum</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Pseudomonas ichthyodermis</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Vibrio ichthyodermis</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Vibrio piscium</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>Vibrio piscium var. japonicus</t>
-        </is>
-      </c>
+          <t>Listonella aestuarianus</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
@@ -49980,28 +49908,28 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Vibrio azureus</t>
+          <t>Vibrio alginolyticus</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Photobacterium sp. LC2-005</t>
+          <t>Beneckea alginolytica</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Photobacterium sp. LC2-102</t>
+          <t>Oceanomonas alginolytica</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Vibrio sp. LC2-005</t>
+          <t>Pseudomonas creosotensis</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Vibrio sp. LC2-102</t>
+          <t>Vibrio sp. PeIg0901</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -50232,25 +50160,49 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Vibrio campbellii</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
+          <t>Vibrio anguillarum</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Listonella anguillarum</t>
+        </is>
+      </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Beneckea campbellii</t>
+          <t>Achromobacter ichthyodermis</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Vibrio sp. K11A1</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
+          <t>Listonella anguillara</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Listonella anguillarum</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Pseudomonas ichthyodermis</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Vibrio ichthyodermis</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Vibrio piscium</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Vibrio piscium var. japonicus</t>
+        </is>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
@@ -50476,85 +50428,41 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Vibrio cholerae</t>
+          <t>Vibrio azureus</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Bacillo virgola del Koch</t>
+          <t>Photobacterium sp. LC2-005</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Bacillus cholerae</t>
+          <t>Photobacterium sp. LC2-102</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Bacillus cholerae-asiaticae</t>
+          <t>Vibrio sp. LC2-005</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Kommabacillus</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Liquidivibrio cholerae</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Microspira comma</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>Pacinia cholerae-asiaticae</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Spirillum cholerae</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>Spirillum cholerae-asiaticae</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Vibrio albensis</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>Vibrio cholera</t>
-        </is>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>Vibrio cholerae biovar albensis</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>Vibrio cholerae bv. albensis</t>
-        </is>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>Vibrio cholerae-asiaticae</t>
-        </is>
-      </c>
-      <c r="Q190" t="inlineStr">
-        <is>
-          <t>Vibrio comma</t>
-        </is>
-      </c>
+          <t>Vibrio sp. LC2-102</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
@@ -50772,25 +50680,21 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Vibrio crassostreae</t>
+          <t>Vibrio campbellii</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Vibrio sp. Mel 15</t>
+          <t>Beneckea campbellii</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Vibrio sp. Mel 7</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Mel 8</t>
-        </is>
-      </c>
+          <t>Vibrio sp. K11A1</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
@@ -51020,25 +50924,85 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Vibrio diabolicus</t>
+          <t>Vibrio cholerae</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Bacillo virgola del Koch</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Bacillus cholerae</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Bacillus cholerae-asiaticae</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kommabacillus</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Liquidivibrio cholerae</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Microspira comma</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Pacinia cholerae-asiaticae</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Spirillum cholerae</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Spirillum cholerae-asiaticae</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Vibrio albensis</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>Vibrio cholera</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Vibrio cholerae biovar albensis</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Vibrio cholerae bv. albensis</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Vibrio cholerae-asiaticae</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Vibrio comma</t>
+        </is>
+      </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
@@ -51256,30 +51220,26 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Vibrio fortis</t>
+          <t>Vibrio crassostreae</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 21557</t>
+          <t>Vibrio sp. Mel 15</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 21558</t>
+          <t>Vibrio sp. Mel 7</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 21559</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Vibrio sp. LMG 21562</t>
-        </is>
-      </c>
+          <t>Vibrio sp. Mel 8</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -51508,25 +51468,13 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Vibrio gigantis</t>
+          <t>Vibrio diabolicus</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Mel 13</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Mel 16</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Mel 37</t>
-        </is>
-      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
@@ -51756,80 +51704,40 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Vibrio harveyi</t>
+          <t>Vibrio fortis</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Achromobacter harveyi</t>
+          <t>Vibrio sp. LMG 21557</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Beneckea harveyi</t>
+          <t>Vibrio sp. LMG 21558</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Beneckea neptuna</t>
+          <t>Vibrio sp. LMG 21559</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Lucibacterium harveyi</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Photobacterium harveyi</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Pseudomonas harveyi</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>Vibrio carchariae</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>Vibrio trachuri</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>Vibrio sp. HENC-01</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>Vibrio sp. HENC-02</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PG 001</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PG 002</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PG 006</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PG 007</t>
-        </is>
-      </c>
+          <t>Vibrio sp. LMG 21562</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
@@ -52048,17 +51956,25 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Vibrio hepatarius</t>
+          <t>Vibrio gigantis</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 20362</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+          <t>Vibrio sp. Mel 13</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Mel 16</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Mel 37</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
@@ -52288,28 +52204,80 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Vibrio hippocampi</t>
+          <t>Vibrio harveyi</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Vibrio sp. BFLP-4</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+          <t>Achromobacter harveyi</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Beneckea harveyi</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Beneckea neptuna</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Lucibacterium harveyi</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Photobacterium harveyi</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Pseudomonas harveyi</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Vibrio carchariae</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Vibrio trachuri</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Vibrio sp. HENC-01</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Vibrio sp. HENC-02</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>Vibrio sp. PG 001</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>Vibrio sp. PG 002</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Vibrio sp. PG 006</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>Vibrio sp. PG 007</t>
+        </is>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
@@ -52528,20 +52496,16 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Vibrio ichthyoenteri</t>
+          <t>Vibrio hepatarius</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Vibrio sp. INFL</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Vibrio sp. INFL (Intestinal Necrosis of Flounder Larvae)</t>
-        </is>
-      </c>
+          <t>Vibrio sp. LMG 20362</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
@@ -52772,11 +52736,15 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Vibrio lentus</t>
+          <t>Vibrio hippocampi</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Vibrio sp. BFLP-4</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
@@ -53008,18 +52976,18 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Vibrio mediterranei</t>
+          <t>Vibrio ichthyoenteri</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Vibrio shiloi</t>
+          <t>Vibrio sp. INFL</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Vibrio shilonii</t>
+          <t>Vibrio sp. INFL (Intestinal Necrosis of Flounder Larvae)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -53252,7 +53220,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Vibrio mimicus</t>
+          <t>Vibrio lentus</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -53488,18 +53456,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Vibrio nereis</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr"/>
+          <t>Vibrio mediterranei</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Vibrio shilonii</t>
+        </is>
+      </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Beneckea nereida</t>
+          <t>Vibrio shiloi</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Beneckea nereis</t>
+          <t>Vibrio shilonii</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -53732,15 +53704,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Vibrio ordalii</t>
+          <t>Vibrio mimicus</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Listonella ordalii</t>
-        </is>
-      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
@@ -53972,12 +53940,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Vibrio orientalis</t>
+          <t>Vibrio nereis</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Beneckea nereida</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Beneckea nereis</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
@@ -54208,40 +54184,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Vibrio owensii</t>
+          <t>Vibrio ordalii</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Vibrio communis</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Vibrio sp. G3C</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Vibrio sp. LMG 20370</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Vibrio sp. R-705</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Vibrio sp. UVABAC003</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Vibrio sp. UVABAC010</t>
-        </is>
-      </c>
+          <t>Listonella ordalii</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -54468,70 +54424,22 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Vibrio parahaemolyticus</t>
+          <t>Vibrio orientalis</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Beneckea parahaemolytica</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Oceanomonas parahaemolytica</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Pasteurella parahaemolytica</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M02</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M03</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M04</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M05</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M06</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M07</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M10</t>
-        </is>
-      </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M11</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M12</t>
-        </is>
-      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr"/>
@@ -54752,16 +54660,40 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Vibrio penaeicida</t>
+          <t>Vibrio owensii</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Vibrio communis</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Vibrio sp. G3C</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Vibrio sp. LMG 20370</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Vibrio sp. R-705</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Vibrio sp. UVABAC003</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Vibrio sp. UVABAC010</t>
+        </is>
+      </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -54988,26 +54920,70 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Vibrio ponticus</t>
+          <t>Vibrio parahaemolyticus</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Vibrio sp. JCM 19238</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
+          <t>Beneckea parahaemolytica</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Oceanomonas parahaemolytica</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Pasteurella parahaemolytica</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M02</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M03</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M04</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M05</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M06</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M07</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M10</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M11</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M12</t>
+        </is>
+      </c>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="inlineStr"/>
@@ -55228,30 +55204,14 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Vibrio proteolyticus</t>
+          <t>Vibrio penaeicida</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Aeromonas hydrophila proteolytica</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Aeromonas hydrophila subsp. proteolytica</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Aeromonas proteolytica</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Beneckea proteolytica</t>
-        </is>
-      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -55480,11 +55440,15 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Vibrio rotiferianus</t>
+          <t>Vibrio ponticus</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Vibrio sp. JCM 19238</t>
+        </is>
+      </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
@@ -55716,14 +55680,30 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Vibrio scophthalmi</t>
+          <t>Vibrio proteolyticus</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Aeromonas hydrophila proteolytica</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Aeromonas hydrophila subsp. proteolytica</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Aeromonas proteolytica</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Beneckea proteolytica</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -55952,50 +55932,18 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Vibrio sinaloensis</t>
+          <t>Vibrio rotiferianus</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Photobacterium ATCC433367</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Photobacterium ATCC43367</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Photobacterium sp. (ATCC 433367)</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Photobacterium sp. (strain ATCC 433367)</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Photobacterium sp. ATCC 43367</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Vibrio sp. CAIM 695</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>Vibrio sp. CAIM 797</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>unidentified bacterium ATCC 43367</t>
-        </is>
-      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
@@ -56220,55 +56168,19 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Vibrio splendidus</t>
+          <t>Vibrio scophthalmi</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Beneckea splendida</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Photobacter splendidum</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Vibrio hemicentroti</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Vibrio sp. AlyHP32</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Vibrio sp. NBRC 101061</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Vibrio sp. S/028/08 B</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>Vibrio sp. S/12/16 B</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Vibrio sp. S/30/08 B</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>Vibrio sp. S/63/15 B</t>
-        </is>
-      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr"/>
@@ -56492,22 +56404,50 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Vibrio tapetis</t>
+          <t>Vibrio sinaloensis</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Vibrio sp. P1</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+          <t>Photobacterium ATCC433367</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Photobacterium ATCC43367</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Photobacterium sp. (ATCC 433367)</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Photobacterium sp. (strain ATCC 433367)</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Photobacterium sp. ATCC 43367</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Vibrio sp. CAIM 695</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Vibrio sp. CAIM 797</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>unidentified bacterium ATCC 43367</t>
+        </is>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr"/>
@@ -56732,23 +56672,55 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Vibrio tasmaniensis</t>
+          <t>Vibrio splendidus</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 20012</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+          <t>Beneckea splendida</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Photobacter splendidum</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Vibrio hemicentroti</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Vibrio sp. AlyHP32</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Vibrio sp. NBRC 101061</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Vibrio sp. S/028/08 B</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Vibrio sp. S/12/16 B</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Vibrio sp. S/30/08 B</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Vibrio sp. S/63/15 B</t>
+        </is>
+      </c>
       <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
@@ -56972,13 +56944,13 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Vibrio vulnificus</t>
+          <t>Vibrio tapetis</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Beneckea vulnifica</t>
+          <t>Vibrio sp. P1</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
@@ -57212,11 +57184,15 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Vitreoscilla stercoraria</t>
+          <t>Vibrio tasmaniensis</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Vibrio sp. LMG 20012</t>
+        </is>
+      </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
@@ -57448,13 +57424,13 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Winogradskyella eximia</t>
+          <t>Vibrio vulnificus</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Bacteroidetes bacterium KMM 3944</t>
+          <t>Beneckea vulnifica</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -57688,15 +57664,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Winogradskyella thalassocola</t>
+          <t>Vitreoscilla stercoraria</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Bacteroidetes bacterium KMM 3907</t>
-        </is>
-      </c>
+      <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
@@ -57928,11 +57900,15 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Yersinia intermedia</t>
+          <t>Winogradskyella eximia</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Bacteroidetes bacterium KMM 3944</t>
+        </is>
+      </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
@@ -58164,13 +58140,13 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Yersinia mollaretii</t>
+          <t>Winogradskyella thalassocola</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Yersinia enterocolitica biogroup 3A</t>
+          <t>Bacteroidetes bacterium KMM 3907</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
@@ -58404,7 +58380,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Yersinia rohdei</t>
+          <t>Yersinia intermedia</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -58640,11 +58616,15 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Yersinia ruckeri</t>
+          <t>Yersinia mollaretii</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Yersinia enterocolitica biogroup 3A</t>
+        </is>
+      </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
@@ -58876,25 +58856,13 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[Pantoea] cedenensis</t>
+          <t>Yersinia rohdei</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>'Pantoea cedenensis'</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Erwinia cedenensis</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Pantoea cedenensis</t>
-        </is>
-      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
@@ -59121,6 +59089,490 @@
       <c r="HU224" t="inlineStr"/>
       <c r="HV224" t="inlineStr"/>
     </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Yersinia ruckeri</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="inlineStr"/>
+      <c r="AH225" t="inlineStr"/>
+      <c r="AI225" t="inlineStr"/>
+      <c r="AJ225" t="inlineStr"/>
+      <c r="AK225" t="inlineStr"/>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr"/>
+      <c r="AO225" t="inlineStr"/>
+      <c r="AP225" t="inlineStr"/>
+      <c r="AQ225" t="inlineStr"/>
+      <c r="AR225" t="inlineStr"/>
+      <c r="AS225" t="inlineStr"/>
+      <c r="AT225" t="inlineStr"/>
+      <c r="AU225" t="inlineStr"/>
+      <c r="AV225" t="inlineStr"/>
+      <c r="AW225" t="inlineStr"/>
+      <c r="AX225" t="inlineStr"/>
+      <c r="AY225" t="inlineStr"/>
+      <c r="AZ225" t="inlineStr"/>
+      <c r="BA225" t="inlineStr"/>
+      <c r="BB225" t="inlineStr"/>
+      <c r="BC225" t="inlineStr"/>
+      <c r="BD225" t="inlineStr"/>
+      <c r="BE225" t="inlineStr"/>
+      <c r="BF225" t="inlineStr"/>
+      <c r="BG225" t="inlineStr"/>
+      <c r="BH225" t="inlineStr"/>
+      <c r="BI225" t="inlineStr"/>
+      <c r="BJ225" t="inlineStr"/>
+      <c r="BK225" t="inlineStr"/>
+      <c r="BL225" t="inlineStr"/>
+      <c r="BM225" t="inlineStr"/>
+      <c r="BN225" t="inlineStr"/>
+      <c r="BO225" t="inlineStr"/>
+      <c r="BP225" t="inlineStr"/>
+      <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
+      <c r="BS225" t="inlineStr"/>
+      <c r="BT225" t="inlineStr"/>
+      <c r="BU225" t="inlineStr"/>
+      <c r="BV225" t="inlineStr"/>
+      <c r="BW225" t="inlineStr"/>
+      <c r="BX225" t="inlineStr"/>
+      <c r="BY225" t="inlineStr"/>
+      <c r="BZ225" t="inlineStr"/>
+      <c r="CA225" t="inlineStr"/>
+      <c r="CB225" t="inlineStr"/>
+      <c r="CC225" t="inlineStr"/>
+      <c r="CD225" t="inlineStr"/>
+      <c r="CE225" t="inlineStr"/>
+      <c r="CF225" t="inlineStr"/>
+      <c r="CG225" t="inlineStr"/>
+      <c r="CH225" t="inlineStr"/>
+      <c r="CI225" t="inlineStr"/>
+      <c r="CJ225" t="inlineStr"/>
+      <c r="CK225" t="inlineStr"/>
+      <c r="CL225" t="inlineStr"/>
+      <c r="CM225" t="inlineStr"/>
+      <c r="CN225" t="inlineStr"/>
+      <c r="CO225" t="inlineStr"/>
+      <c r="CP225" t="inlineStr"/>
+      <c r="CQ225" t="inlineStr"/>
+      <c r="CR225" t="inlineStr"/>
+      <c r="CS225" t="inlineStr"/>
+      <c r="CT225" t="inlineStr"/>
+      <c r="CU225" t="inlineStr"/>
+      <c r="CV225" t="inlineStr"/>
+      <c r="CW225" t="inlineStr"/>
+      <c r="CX225" t="inlineStr"/>
+      <c r="CY225" t="inlineStr"/>
+      <c r="CZ225" t="inlineStr"/>
+      <c r="DA225" t="inlineStr"/>
+      <c r="DB225" t="inlineStr"/>
+      <c r="DC225" t="inlineStr"/>
+      <c r="DD225" t="inlineStr"/>
+      <c r="DE225" t="inlineStr"/>
+      <c r="DF225" t="inlineStr"/>
+      <c r="DG225" t="inlineStr"/>
+      <c r="DH225" t="inlineStr"/>
+      <c r="DI225" t="inlineStr"/>
+      <c r="DJ225" t="inlineStr"/>
+      <c r="DK225" t="inlineStr"/>
+      <c r="DL225" t="inlineStr"/>
+      <c r="DM225" t="inlineStr"/>
+      <c r="DN225" t="inlineStr"/>
+      <c r="DO225" t="inlineStr"/>
+      <c r="DP225" t="inlineStr"/>
+      <c r="DQ225" t="inlineStr"/>
+      <c r="DR225" t="inlineStr"/>
+      <c r="DS225" t="inlineStr"/>
+      <c r="DT225" t="inlineStr"/>
+      <c r="DU225" t="inlineStr"/>
+      <c r="DV225" t="inlineStr"/>
+      <c r="DW225" t="inlineStr"/>
+      <c r="DX225" t="inlineStr"/>
+      <c r="DY225" t="inlineStr"/>
+      <c r="DZ225" t="inlineStr"/>
+      <c r="EA225" t="inlineStr"/>
+      <c r="EB225" t="inlineStr"/>
+      <c r="EC225" t="inlineStr"/>
+      <c r="ED225" t="inlineStr"/>
+      <c r="EE225" t="inlineStr"/>
+      <c r="EF225" t="inlineStr"/>
+      <c r="EG225" t="inlineStr"/>
+      <c r="EH225" t="inlineStr"/>
+      <c r="EI225" t="inlineStr"/>
+      <c r="EJ225" t="inlineStr"/>
+      <c r="EK225" t="inlineStr"/>
+      <c r="EL225" t="inlineStr"/>
+      <c r="EM225" t="inlineStr"/>
+      <c r="EN225" t="inlineStr"/>
+      <c r="EO225" t="inlineStr"/>
+      <c r="EP225" t="inlineStr"/>
+      <c r="EQ225" t="inlineStr"/>
+      <c r="ER225" t="inlineStr"/>
+      <c r="ES225" t="inlineStr"/>
+      <c r="ET225" t="inlineStr"/>
+      <c r="EU225" t="inlineStr"/>
+      <c r="EV225" t="inlineStr"/>
+      <c r="EW225" t="inlineStr"/>
+      <c r="EX225" t="inlineStr"/>
+      <c r="EY225" t="inlineStr"/>
+      <c r="EZ225" t="inlineStr"/>
+      <c r="FA225" t="inlineStr"/>
+      <c r="FB225" t="inlineStr"/>
+      <c r="FC225" t="inlineStr"/>
+      <c r="FD225" t="inlineStr"/>
+      <c r="FE225" t="inlineStr"/>
+      <c r="FF225" t="inlineStr"/>
+      <c r="FG225" t="inlineStr"/>
+      <c r="FH225" t="inlineStr"/>
+      <c r="FI225" t="inlineStr"/>
+      <c r="FJ225" t="inlineStr"/>
+      <c r="FK225" t="inlineStr"/>
+      <c r="FL225" t="inlineStr"/>
+      <c r="FM225" t="inlineStr"/>
+      <c r="FN225" t="inlineStr"/>
+      <c r="FO225" t="inlineStr"/>
+      <c r="FP225" t="inlineStr"/>
+      <c r="FQ225" t="inlineStr"/>
+      <c r="FR225" t="inlineStr"/>
+      <c r="FS225" t="inlineStr"/>
+      <c r="FT225" t="inlineStr"/>
+      <c r="FU225" t="inlineStr"/>
+      <c r="FV225" t="inlineStr"/>
+      <c r="FW225" t="inlineStr"/>
+      <c r="FX225" t="inlineStr"/>
+      <c r="FY225" t="inlineStr"/>
+      <c r="FZ225" t="inlineStr"/>
+      <c r="GA225" t="inlineStr"/>
+      <c r="GB225" t="inlineStr"/>
+      <c r="GC225" t="inlineStr"/>
+      <c r="GD225" t="inlineStr"/>
+      <c r="GE225" t="inlineStr"/>
+      <c r="GF225" t="inlineStr"/>
+      <c r="GG225" t="inlineStr"/>
+      <c r="GH225" t="inlineStr"/>
+      <c r="GI225" t="inlineStr"/>
+      <c r="GJ225" t="inlineStr"/>
+      <c r="GK225" t="inlineStr"/>
+      <c r="GL225" t="inlineStr"/>
+      <c r="GM225" t="inlineStr"/>
+      <c r="GN225" t="inlineStr"/>
+      <c r="GO225" t="inlineStr"/>
+      <c r="GP225" t="inlineStr"/>
+      <c r="GQ225" t="inlineStr"/>
+      <c r="GR225" t="inlineStr"/>
+      <c r="GS225" t="inlineStr"/>
+      <c r="GT225" t="inlineStr"/>
+      <c r="GU225" t="inlineStr"/>
+      <c r="GV225" t="inlineStr"/>
+      <c r="GW225" t="inlineStr"/>
+      <c r="GX225" t="inlineStr"/>
+      <c r="GY225" t="inlineStr"/>
+      <c r="GZ225" t="inlineStr"/>
+      <c r="HA225" t="inlineStr"/>
+      <c r="HB225" t="inlineStr"/>
+      <c r="HC225" t="inlineStr"/>
+      <c r="HD225" t="inlineStr"/>
+      <c r="HE225" t="inlineStr"/>
+      <c r="HF225" t="inlineStr"/>
+      <c r="HG225" t="inlineStr"/>
+      <c r="HH225" t="inlineStr"/>
+      <c r="HI225" t="inlineStr"/>
+      <c r="HJ225" t="inlineStr"/>
+      <c r="HK225" t="inlineStr"/>
+      <c r="HL225" t="inlineStr"/>
+      <c r="HM225" t="inlineStr"/>
+      <c r="HN225" t="inlineStr"/>
+      <c r="HO225" t="inlineStr"/>
+      <c r="HP225" t="inlineStr"/>
+      <c r="HQ225" t="inlineStr"/>
+      <c r="HR225" t="inlineStr"/>
+      <c r="HS225" t="inlineStr"/>
+      <c r="HT225" t="inlineStr"/>
+      <c r="HU225" t="inlineStr"/>
+      <c r="HV225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>[Pantoea] cedenensis</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>'Pantoea cedenensis'</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Erwinia cedenensis</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Pantoea cedenensis</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="inlineStr"/>
+      <c r="AH226" t="inlineStr"/>
+      <c r="AI226" t="inlineStr"/>
+      <c r="AJ226" t="inlineStr"/>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr"/>
+      <c r="AO226" t="inlineStr"/>
+      <c r="AP226" t="inlineStr"/>
+      <c r="AQ226" t="inlineStr"/>
+      <c r="AR226" t="inlineStr"/>
+      <c r="AS226" t="inlineStr"/>
+      <c r="AT226" t="inlineStr"/>
+      <c r="AU226" t="inlineStr"/>
+      <c r="AV226" t="inlineStr"/>
+      <c r="AW226" t="inlineStr"/>
+      <c r="AX226" t="inlineStr"/>
+      <c r="AY226" t="inlineStr"/>
+      <c r="AZ226" t="inlineStr"/>
+      <c r="BA226" t="inlineStr"/>
+      <c r="BB226" t="inlineStr"/>
+      <c r="BC226" t="inlineStr"/>
+      <c r="BD226" t="inlineStr"/>
+      <c r="BE226" t="inlineStr"/>
+      <c r="BF226" t="inlineStr"/>
+      <c r="BG226" t="inlineStr"/>
+      <c r="BH226" t="inlineStr"/>
+      <c r="BI226" t="inlineStr"/>
+      <c r="BJ226" t="inlineStr"/>
+      <c r="BK226" t="inlineStr"/>
+      <c r="BL226" t="inlineStr"/>
+      <c r="BM226" t="inlineStr"/>
+      <c r="BN226" t="inlineStr"/>
+      <c r="BO226" t="inlineStr"/>
+      <c r="BP226" t="inlineStr"/>
+      <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
+      <c r="BS226" t="inlineStr"/>
+      <c r="BT226" t="inlineStr"/>
+      <c r="BU226" t="inlineStr"/>
+      <c r="BV226" t="inlineStr"/>
+      <c r="BW226" t="inlineStr"/>
+      <c r="BX226" t="inlineStr"/>
+      <c r="BY226" t="inlineStr"/>
+      <c r="BZ226" t="inlineStr"/>
+      <c r="CA226" t="inlineStr"/>
+      <c r="CB226" t="inlineStr"/>
+      <c r="CC226" t="inlineStr"/>
+      <c r="CD226" t="inlineStr"/>
+      <c r="CE226" t="inlineStr"/>
+      <c r="CF226" t="inlineStr"/>
+      <c r="CG226" t="inlineStr"/>
+      <c r="CH226" t="inlineStr"/>
+      <c r="CI226" t="inlineStr"/>
+      <c r="CJ226" t="inlineStr"/>
+      <c r="CK226" t="inlineStr"/>
+      <c r="CL226" t="inlineStr"/>
+      <c r="CM226" t="inlineStr"/>
+      <c r="CN226" t="inlineStr"/>
+      <c r="CO226" t="inlineStr"/>
+      <c r="CP226" t="inlineStr"/>
+      <c r="CQ226" t="inlineStr"/>
+      <c r="CR226" t="inlineStr"/>
+      <c r="CS226" t="inlineStr"/>
+      <c r="CT226" t="inlineStr"/>
+      <c r="CU226" t="inlineStr"/>
+      <c r="CV226" t="inlineStr"/>
+      <c r="CW226" t="inlineStr"/>
+      <c r="CX226" t="inlineStr"/>
+      <c r="CY226" t="inlineStr"/>
+      <c r="CZ226" t="inlineStr"/>
+      <c r="DA226" t="inlineStr"/>
+      <c r="DB226" t="inlineStr"/>
+      <c r="DC226" t="inlineStr"/>
+      <c r="DD226" t="inlineStr"/>
+      <c r="DE226" t="inlineStr"/>
+      <c r="DF226" t="inlineStr"/>
+      <c r="DG226" t="inlineStr"/>
+      <c r="DH226" t="inlineStr"/>
+      <c r="DI226" t="inlineStr"/>
+      <c r="DJ226" t="inlineStr"/>
+      <c r="DK226" t="inlineStr"/>
+      <c r="DL226" t="inlineStr"/>
+      <c r="DM226" t="inlineStr"/>
+      <c r="DN226" t="inlineStr"/>
+      <c r="DO226" t="inlineStr"/>
+      <c r="DP226" t="inlineStr"/>
+      <c r="DQ226" t="inlineStr"/>
+      <c r="DR226" t="inlineStr"/>
+      <c r="DS226" t="inlineStr"/>
+      <c r="DT226" t="inlineStr"/>
+      <c r="DU226" t="inlineStr"/>
+      <c r="DV226" t="inlineStr"/>
+      <c r="DW226" t="inlineStr"/>
+      <c r="DX226" t="inlineStr"/>
+      <c r="DY226" t="inlineStr"/>
+      <c r="DZ226" t="inlineStr"/>
+      <c r="EA226" t="inlineStr"/>
+      <c r="EB226" t="inlineStr"/>
+      <c r="EC226" t="inlineStr"/>
+      <c r="ED226" t="inlineStr"/>
+      <c r="EE226" t="inlineStr"/>
+      <c r="EF226" t="inlineStr"/>
+      <c r="EG226" t="inlineStr"/>
+      <c r="EH226" t="inlineStr"/>
+      <c r="EI226" t="inlineStr"/>
+      <c r="EJ226" t="inlineStr"/>
+      <c r="EK226" t="inlineStr"/>
+      <c r="EL226" t="inlineStr"/>
+      <c r="EM226" t="inlineStr"/>
+      <c r="EN226" t="inlineStr"/>
+      <c r="EO226" t="inlineStr"/>
+      <c r="EP226" t="inlineStr"/>
+      <c r="EQ226" t="inlineStr"/>
+      <c r="ER226" t="inlineStr"/>
+      <c r="ES226" t="inlineStr"/>
+      <c r="ET226" t="inlineStr"/>
+      <c r="EU226" t="inlineStr"/>
+      <c r="EV226" t="inlineStr"/>
+      <c r="EW226" t="inlineStr"/>
+      <c r="EX226" t="inlineStr"/>
+      <c r="EY226" t="inlineStr"/>
+      <c r="EZ226" t="inlineStr"/>
+      <c r="FA226" t="inlineStr"/>
+      <c r="FB226" t="inlineStr"/>
+      <c r="FC226" t="inlineStr"/>
+      <c r="FD226" t="inlineStr"/>
+      <c r="FE226" t="inlineStr"/>
+      <c r="FF226" t="inlineStr"/>
+      <c r="FG226" t="inlineStr"/>
+      <c r="FH226" t="inlineStr"/>
+      <c r="FI226" t="inlineStr"/>
+      <c r="FJ226" t="inlineStr"/>
+      <c r="FK226" t="inlineStr"/>
+      <c r="FL226" t="inlineStr"/>
+      <c r="FM226" t="inlineStr"/>
+      <c r="FN226" t="inlineStr"/>
+      <c r="FO226" t="inlineStr"/>
+      <c r="FP226" t="inlineStr"/>
+      <c r="FQ226" t="inlineStr"/>
+      <c r="FR226" t="inlineStr"/>
+      <c r="FS226" t="inlineStr"/>
+      <c r="FT226" t="inlineStr"/>
+      <c r="FU226" t="inlineStr"/>
+      <c r="FV226" t="inlineStr"/>
+      <c r="FW226" t="inlineStr"/>
+      <c r="FX226" t="inlineStr"/>
+      <c r="FY226" t="inlineStr"/>
+      <c r="FZ226" t="inlineStr"/>
+      <c r="GA226" t="inlineStr"/>
+      <c r="GB226" t="inlineStr"/>
+      <c r="GC226" t="inlineStr"/>
+      <c r="GD226" t="inlineStr"/>
+      <c r="GE226" t="inlineStr"/>
+      <c r="GF226" t="inlineStr"/>
+      <c r="GG226" t="inlineStr"/>
+      <c r="GH226" t="inlineStr"/>
+      <c r="GI226" t="inlineStr"/>
+      <c r="GJ226" t="inlineStr"/>
+      <c r="GK226" t="inlineStr"/>
+      <c r="GL226" t="inlineStr"/>
+      <c r="GM226" t="inlineStr"/>
+      <c r="GN226" t="inlineStr"/>
+      <c r="GO226" t="inlineStr"/>
+      <c r="GP226" t="inlineStr"/>
+      <c r="GQ226" t="inlineStr"/>
+      <c r="GR226" t="inlineStr"/>
+      <c r="GS226" t="inlineStr"/>
+      <c r="GT226" t="inlineStr"/>
+      <c r="GU226" t="inlineStr"/>
+      <c r="GV226" t="inlineStr"/>
+      <c r="GW226" t="inlineStr"/>
+      <c r="GX226" t="inlineStr"/>
+      <c r="GY226" t="inlineStr"/>
+      <c r="GZ226" t="inlineStr"/>
+      <c r="HA226" t="inlineStr"/>
+      <c r="HB226" t="inlineStr"/>
+      <c r="HC226" t="inlineStr"/>
+      <c r="HD226" t="inlineStr"/>
+      <c r="HE226" t="inlineStr"/>
+      <c r="HF226" t="inlineStr"/>
+      <c r="HG226" t="inlineStr"/>
+      <c r="HH226" t="inlineStr"/>
+      <c r="HI226" t="inlineStr"/>
+      <c r="HJ226" t="inlineStr"/>
+      <c r="HK226" t="inlineStr"/>
+      <c r="HL226" t="inlineStr"/>
+      <c r="HM226" t="inlineStr"/>
+      <c r="HN226" t="inlineStr"/>
+      <c r="HO226" t="inlineStr"/>
+      <c r="HP226" t="inlineStr"/>
+      <c r="HQ226" t="inlineStr"/>
+      <c r="HR226" t="inlineStr"/>
+      <c r="HS226" t="inlineStr"/>
+      <c r="HT226" t="inlineStr"/>
+      <c r="HU226" t="inlineStr"/>
+      <c r="HV226" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
